--- a/preguntas/RevisionPreguntasDeExamen.xlsx
+++ b/preguntas/RevisionPreguntasDeExamen.xlsx
@@ -120,12 +120,6 @@
     <t>Filestream /streamfile</t>
   </si>
   <si>
-    <t>excepciones</t>
-  </si>
-  <si>
-    <t>sobrecarga parametros nullo</t>
-  </si>
-  <si>
     <t>Dictionary</t>
   </si>
   <si>
@@ -206,9 +200,6 @@
     <t>arrylist convert</t>
   </si>
   <si>
-    <t>protect public</t>
-  </si>
-  <si>
     <t>herencia</t>
   </si>
   <si>
@@ -239,9 +230,6 @@
     <t>serialize json</t>
   </si>
   <si>
-    <t>metodos y propiedades</t>
-  </si>
-  <si>
     <t>testing and debug</t>
   </si>
   <si>
@@ -254,9 +242,6 @@
     <t>linq pagging</t>
   </si>
   <si>
-    <t>events</t>
-  </si>
-  <si>
     <t>REALIZADA</t>
   </si>
   <si>
@@ -279,6 +264,21 @@
   </si>
   <si>
     <t>config.file log</t>
+  </si>
+  <si>
+    <t>property no static</t>
+  </si>
+  <si>
+    <t>eventos</t>
+  </si>
+  <si>
+    <t>evetlog!!!!!!!!</t>
+  </si>
+  <si>
+    <t>sobrecarga parametros nullo ERRATA</t>
+  </si>
+  <si>
+    <t>excepciones preferencia</t>
   </si>
 </sst>
 </file>
@@ -733,7 +733,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -761,7 +761,7 @@
     <row r="2" spans="1:19">
       <c r="A2">
         <f ca="1">ROUND((RAND()*17),2)</f>
-        <v>15.15</v>
+        <v>7.98</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -821,7 +821,7 @@
     <row r="3" spans="1:19">
       <c r="A3">
         <f t="shared" ref="A3:A16" ca="1" si="0">ROUND((RAND()*17),2)</f>
-        <v>11.87</v>
+        <v>7.64</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
@@ -881,7 +881,7 @@
     <row r="4" spans="1:19">
       <c r="A4">
         <f t="shared" ca="1" si="0"/>
-        <v>4.1900000000000004</v>
+        <v>11.93</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
@@ -941,7 +941,7 @@
     <row r="5" spans="1:19">
       <c r="A5">
         <f t="shared" ca="1" si="0"/>
-        <v>13.13</v>
+        <v>11.01</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>13</v>
@@ -999,7 +999,7 @@
     <row r="6" spans="1:19">
       <c r="A6">
         <f t="shared" ca="1" si="0"/>
-        <v>2.69</v>
+        <v>8.15</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>4</v>
@@ -1059,7 +1059,7 @@
     <row r="7" spans="1:19">
       <c r="A7">
         <f t="shared" ca="1" si="0"/>
-        <v>6.63</v>
+        <v>7.96</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -1119,7 +1119,7 @@
     <row r="8" spans="1:19">
       <c r="A8">
         <f t="shared" ca="1" si="0"/>
-        <v>15.79</v>
+        <v>15.05</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>6</v>
@@ -1179,7 +1179,7 @@
     <row r="9" spans="1:19">
       <c r="A9">
         <f t="shared" ca="1" si="0"/>
-        <v>14.01</v>
+        <v>8.68</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>14</v>
@@ -1237,7 +1237,7 @@
     <row r="10" spans="1:19">
       <c r="A10">
         <f t="shared" ca="1" si="0"/>
-        <v>3.4</v>
+        <v>8.43</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>14</v>
@@ -1295,7 +1295,7 @@
     <row r="11" spans="1:19">
       <c r="A11">
         <f t="shared" ca="1" si="0"/>
-        <v>13.79</v>
+        <v>0.72</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>15</v>
@@ -1353,7 +1353,7 @@
     <row r="12" spans="1:19">
       <c r="A12">
         <f t="shared" ca="1" si="0"/>
-        <v>13.65</v>
+        <v>16.239999999999998</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>8</v>
@@ -1411,7 +1411,7 @@
     <row r="13" spans="1:19">
       <c r="A13">
         <f t="shared" ca="1" si="0"/>
-        <v>10.36</v>
+        <v>13.53</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>9</v>
@@ -1469,7 +1469,7 @@
     <row r="14" spans="1:19">
       <c r="A14">
         <f t="shared" ca="1" si="0"/>
-        <v>16.88</v>
+        <v>2.77</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>12</v>
@@ -1529,7 +1529,7 @@
     <row r="15" spans="1:19">
       <c r="A15">
         <f t="shared" ca="1" si="0"/>
-        <v>13.52</v>
+        <v>9.91</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>10</v>
@@ -1589,7 +1589,7 @@
     <row r="16" spans="1:19">
       <c r="A16">
         <f t="shared" ca="1" si="0"/>
-        <v>14.28</v>
+        <v>4.07</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>0</v>
@@ -1763,7 +1763,7 @@
         <v>85</v>
       </c>
       <c r="F20" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="2:19">
@@ -1773,7 +1773,7 @@
         <v>86</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
@@ -2007,7 +2007,7 @@
   <dimension ref="A1:S53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2024,13 +2024,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:8" hidden="1">
@@ -2041,7 +2041,7 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:8" hidden="1">
@@ -2052,7 +2052,7 @@
         <v>19</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:8" hidden="1">
@@ -2063,7 +2063,7 @@
         <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2072,25 +2072,29 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="16"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" hidden="1">
+      <c r="A6" s="16">
+        <v>1</v>
+      </c>
       <c r="B6" s="12">
         <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="16"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" hidden="1">
+      <c r="A7" s="16">
+        <v>1</v>
+      </c>
       <c r="B7" s="14">
         <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F7" t="s">
         <v>20</v>
@@ -2110,7 +2114,7 @@
         <v>61</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F8" t="s">
         <v>23</v>
@@ -2125,7 +2129,7 @@
         <v>68</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="6" customFormat="1" ht="27" customHeight="1">
@@ -2135,7 +2139,7 @@
       </c>
       <c r="C10"/>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E10"/>
     </row>
@@ -2145,7 +2149,7 @@
         <v>72</v>
       </c>
       <c r="D11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:8" hidden="1">
@@ -2157,7 +2161,7 @@
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E12" s="16">
         <v>20</v>
@@ -2169,7 +2173,7 @@
         <v>74</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:8" hidden="1">
@@ -2183,13 +2187,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="16"/>
+    <row r="15" spans="1:8" hidden="1">
+      <c r="A15" s="16">
+        <v>1</v>
+      </c>
       <c r="B15" s="12">
         <v>83</v>
       </c>
       <c r="D15" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:8" hidden="1">
@@ -2200,7 +2206,7 @@
         <v>84</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:17" s="6" customFormat="1" hidden="1">
@@ -2212,7 +2218,7 @@
       </c>
       <c r="C17"/>
       <c r="D17" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E17"/>
     </row>
@@ -2258,7 +2264,7 @@
         <v>127</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -2267,16 +2273,18 @@
         <v>139</v>
       </c>
       <c r="D21" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="A22" s="16"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" hidden="1">
+      <c r="A22" s="16">
+        <v>1</v>
+      </c>
       <c r="B22" s="14">
         <v>144</v>
       </c>
       <c r="D22" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -2285,7 +2293,7 @@
         <v>161</v>
       </c>
       <c r="D23" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -2294,7 +2302,7 @@
         <v>165</v>
       </c>
       <c r="D24" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -2303,7 +2311,7 @@
         <v>166</v>
       </c>
       <c r="D25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2312,7 +2320,7 @@
         <v>167</v>
       </c>
       <c r="D26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:17" hidden="1">
@@ -2323,7 +2331,7 @@
         <v>168</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:17" hidden="1">
@@ -2334,7 +2342,7 @@
         <v>169</v>
       </c>
       <c r="D28" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:17" hidden="1">
@@ -2345,7 +2353,7 @@
         <v>170</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2354,7 +2362,7 @@
         <v>171</v>
       </c>
       <c r="D30" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E30" s="16"/>
     </row>
@@ -2396,22 +2404,26 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:19">
-      <c r="A35" s="6"/>
+    <row r="35" spans="1:19" hidden="1">
+      <c r="A35" s="6">
+        <v>1</v>
+      </c>
       <c r="B35" s="6">
         <v>176</v>
       </c>
       <c r="D35" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19">
-      <c r="A36" s="6"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" hidden="1">
+      <c r="A36" s="6">
+        <v>1</v>
+      </c>
       <c r="B36" s="6">
         <v>177</v>
       </c>
       <c r="D36" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:19">
@@ -2421,7 +2433,7 @@
       </c>
       <c r="C37" s="15"/>
       <c r="D37" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E37" s="15"/>
       <c r="F37" s="3"/>
@@ -2445,7 +2457,7 @@
         <v>211</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:19" hidden="1">
@@ -2456,7 +2468,7 @@
         <v>228</v>
       </c>
       <c r="D39" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:19">
@@ -2465,7 +2477,7 @@
         <v>234</v>
       </c>
       <c r="D40" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:19">
@@ -2474,7 +2486,7 @@
         <v>237</v>
       </c>
       <c r="D41" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:19">
@@ -2483,7 +2495,7 @@
         <v>240</v>
       </c>
       <c r="D42" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:19">
@@ -2492,7 +2504,7 @@
         <v>245</v>
       </c>
       <c r="D43" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44" spans="1:19" hidden="1">
@@ -2504,19 +2516,21 @@
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19">
-      <c r="A45" s="16"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" hidden="1">
+      <c r="A45" s="16">
+        <v>1</v>
+      </c>
       <c r="B45" s="12">
         <v>253</v>
       </c>
       <c r="D45" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:19">
@@ -2525,7 +2539,7 @@
         <v>255</v>
       </c>
       <c r="D46" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" spans="1:19" hidden="1">
@@ -2537,10 +2551,10 @@
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="1:19">
@@ -2549,7 +2563,7 @@
         <v>258</v>
       </c>
       <c r="D48" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2558,7 +2572,7 @@
         <v>274</v>
       </c>
       <c r="D49" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2567,7 +2581,7 @@
         <v>279</v>
       </c>
       <c r="D50" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:4" hidden="1">
@@ -2578,13 +2592,13 @@
         <v>283</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52" spans="1:4" hidden="1">
       <c r="A52">
         <f>SUM(A2:A51)</f>
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B52">
         <v>50</v>
@@ -2593,11 +2607,11 @@
     <row r="53" spans="1:4">
       <c r="B53">
         <f>COUNT(B2:B51)-A52</f>
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C53">
         <f>COUNT(A2:A51)</f>
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/preguntas/RevisionPreguntasDeExamen.xlsx
+++ b/preguntas/RevisionPreguntasDeExamen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1350" windowWidth="17295" windowHeight="3270" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="1350" windowWidth="12585" windowHeight="3270" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Examen" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="71">
   <si>
     <t>Tejero Calderera, José Vicente</t>
   </si>
@@ -81,9 +81,6 @@
     <t>Rodriguez Cruz Luis Miguel</t>
   </si>
   <si>
-    <t>datacontractjsonserializer</t>
-  </si>
-  <si>
     <t>MemoryStream</t>
   </si>
   <si>
@@ -94,9 +91,6 @@
   </si>
   <si>
     <t>Encondig.UTF8</t>
-  </si>
-  <si>
-    <t>MatchCollection Clase</t>
   </si>
   <si>
     <t>expressiones regulares</t>
@@ -145,9 +139,6 @@
   </si>
   <si>
     <t>comparacion perezosa</t>
-  </si>
-  <si>
-    <t>statin class this String ?</t>
   </si>
   <si>
     <t>delegados</t>
@@ -279,6 +270,12 @@
   </si>
   <si>
     <t>excepciones preferencia</t>
+  </si>
+  <si>
+    <t>DataContractjson</t>
+  </si>
+  <si>
+    <t>extension metodos</t>
   </si>
 </sst>
 </file>
@@ -733,7 +730,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -761,7 +758,7 @@
     <row r="2" spans="1:19">
       <c r="A2">
         <f ca="1">ROUND((RAND()*17),2)</f>
-        <v>7.98</v>
+        <v>12.62</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -821,7 +818,7 @@
     <row r="3" spans="1:19">
       <c r="A3">
         <f t="shared" ref="A3:A16" ca="1" si="0">ROUND((RAND()*17),2)</f>
-        <v>7.64</v>
+        <v>11.43</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
@@ -881,7 +878,7 @@
     <row r="4" spans="1:19">
       <c r="A4">
         <f t="shared" ca="1" si="0"/>
-        <v>11.93</v>
+        <v>5.49</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
@@ -941,7 +938,7 @@
     <row r="5" spans="1:19">
       <c r="A5">
         <f t="shared" ca="1" si="0"/>
-        <v>11.01</v>
+        <v>0.08</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>13</v>
@@ -999,7 +996,7 @@
     <row r="6" spans="1:19">
       <c r="A6">
         <f t="shared" ca="1" si="0"/>
-        <v>8.15</v>
+        <v>15.65</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>4</v>
@@ -1059,7 +1056,7 @@
     <row r="7" spans="1:19">
       <c r="A7">
         <f t="shared" ca="1" si="0"/>
-        <v>7.96</v>
+        <v>3.1</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -1119,7 +1116,7 @@
     <row r="8" spans="1:19">
       <c r="A8">
         <f t="shared" ca="1" si="0"/>
-        <v>15.05</v>
+        <v>8.39</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>6</v>
@@ -1179,7 +1176,7 @@
     <row r="9" spans="1:19">
       <c r="A9">
         <f t="shared" ca="1" si="0"/>
-        <v>8.68</v>
+        <v>6.75</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>14</v>
@@ -1237,7 +1234,7 @@
     <row r="10" spans="1:19">
       <c r="A10">
         <f t="shared" ca="1" si="0"/>
-        <v>8.43</v>
+        <v>6.07</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>14</v>
@@ -1295,7 +1292,7 @@
     <row r="11" spans="1:19">
       <c r="A11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72</v>
+        <v>1.02</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>15</v>
@@ -1353,7 +1350,7 @@
     <row r="12" spans="1:19">
       <c r="A12">
         <f t="shared" ca="1" si="0"/>
-        <v>16.239999999999998</v>
+        <v>6.61</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>8</v>
@@ -1411,7 +1408,7 @@
     <row r="13" spans="1:19">
       <c r="A13">
         <f t="shared" ca="1" si="0"/>
-        <v>13.53</v>
+        <v>9.35</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>9</v>
@@ -1469,7 +1466,7 @@
     <row r="14" spans="1:19">
       <c r="A14">
         <f t="shared" ca="1" si="0"/>
-        <v>2.77</v>
+        <v>2.95</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>12</v>
@@ -1529,7 +1526,7 @@
     <row r="15" spans="1:19">
       <c r="A15">
         <f t="shared" ca="1" si="0"/>
-        <v>9.91</v>
+        <v>2.13</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>10</v>
@@ -1589,7 +1586,7 @@
     <row r="16" spans="1:19">
       <c r="A16">
         <f t="shared" ca="1" si="0"/>
-        <v>4.07</v>
+        <v>8.25</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>0</v>
@@ -1763,7 +1760,7 @@
         <v>85</v>
       </c>
       <c r="F20" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="2:19">
@@ -1773,7 +1770,7 @@
         <v>86</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
@@ -2007,7 +2004,7 @@
   <dimension ref="A1:S53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2024,13 +2021,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:8" hidden="1">
@@ -2041,7 +2038,7 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:8" hidden="1">
@@ -2052,7 +2049,7 @@
         <v>19</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:8" hidden="1">
@@ -2063,7 +2060,7 @@
         <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2072,7 +2069,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:8" hidden="1">
@@ -2083,7 +2080,7 @@
         <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:8" hidden="1">
@@ -2094,16 +2091,16 @@
         <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s">
         <v>18</v>
-      </c>
-      <c r="H7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8" hidden="1">
@@ -2114,22 +2111,24 @@
         <v>61</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="16"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" hidden="1">
+      <c r="A9" s="6">
+        <v>1</v>
+      </c>
       <c r="B9" s="14">
         <v>68</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="6" customFormat="1" ht="27" customHeight="1">
@@ -2139,7 +2138,7 @@
       </c>
       <c r="C10"/>
       <c r="D10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E10"/>
     </row>
@@ -2149,7 +2148,7 @@
         <v>72</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:8" hidden="1">
@@ -2161,7 +2160,7 @@
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E12" s="16">
         <v>20</v>
@@ -2173,7 +2172,7 @@
         <v>74</v>
       </c>
       <c r="D13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:8" hidden="1">
@@ -2184,7 +2183,7 @@
         <v>78</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:8" hidden="1">
@@ -2195,7 +2194,7 @@
         <v>83</v>
       </c>
       <c r="D15" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:8" hidden="1">
@@ -2206,7 +2205,7 @@
         <v>84</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:17" s="6" customFormat="1" hidden="1">
@@ -2218,32 +2217,31 @@
       </c>
       <c r="C17"/>
       <c r="D17" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E17"/>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="16"/>
       <c r="B18" s="6">
         <v>121</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" t="s">
         <v>16</v>
       </c>
-      <c r="E18" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="16"/>
+      <c r="A19" s="6"/>
       <c r="B19" s="11">
         <v>125</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -2264,7 +2262,7 @@
         <v>127</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -2273,7 +2271,7 @@
         <v>139</v>
       </c>
       <c r="D21" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:17" hidden="1">
@@ -2284,7 +2282,7 @@
         <v>144</v>
       </c>
       <c r="D22" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -2293,7 +2291,7 @@
         <v>161</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -2302,7 +2300,7 @@
         <v>165</v>
       </c>
       <c r="D24" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -2311,16 +2309,16 @@
         <v>166</v>
       </c>
       <c r="D25" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:17">
-      <c r="A26" s="16"/>
+      <c r="A26" s="6"/>
       <c r="B26" s="12">
         <v>167</v>
       </c>
       <c r="D26" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:17" hidden="1">
@@ -2331,7 +2329,7 @@
         <v>168</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:17" hidden="1">
@@ -2342,7 +2340,7 @@
         <v>169</v>
       </c>
       <c r="D28" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:17" hidden="1">
@@ -2353,7 +2351,7 @@
         <v>170</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2362,7 +2360,7 @@
         <v>171</v>
       </c>
       <c r="D30" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E30" s="16"/>
     </row>
@@ -2372,7 +2370,7 @@
         <v>172</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:17" hidden="1">
@@ -2383,7 +2381,7 @@
         <v>173</v>
       </c>
       <c r="D32" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:19">
@@ -2392,16 +2390,16 @@
         <v>174</v>
       </c>
       <c r="D33" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:19">
-      <c r="A34" s="16"/>
+      <c r="A34" s="6"/>
       <c r="B34" s="6">
         <v>175</v>
       </c>
       <c r="D34" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:19" hidden="1">
@@ -2412,7 +2410,7 @@
         <v>176</v>
       </c>
       <c r="D35" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:19" hidden="1">
@@ -2423,17 +2421,17 @@
         <v>177</v>
       </c>
       <c r="D36" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:19">
-      <c r="A37" s="16"/>
+      <c r="A37" s="6"/>
       <c r="B37" s="6">
         <v>194</v>
       </c>
       <c r="C37" s="15"/>
       <c r="D37" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E37" s="15"/>
       <c r="F37" s="3"/>
@@ -2457,7 +2455,7 @@
         <v>211</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:19" hidden="1">
@@ -2468,7 +2466,7 @@
         <v>228</v>
       </c>
       <c r="D39" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" spans="1:19">
@@ -2477,16 +2475,16 @@
         <v>234</v>
       </c>
       <c r="D40" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:19">
-      <c r="A41" s="16"/>
+      <c r="A41" s="6"/>
       <c r="B41" s="6">
         <v>237</v>
       </c>
       <c r="D41" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="1:19">
@@ -2495,7 +2493,7 @@
         <v>240</v>
       </c>
       <c r="D42" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:19">
@@ -2504,7 +2502,7 @@
         <v>245</v>
       </c>
       <c r="D43" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:19" hidden="1">
@@ -2516,10 +2514,10 @@
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45" spans="1:19" hidden="1">
@@ -2530,16 +2528,16 @@
         <v>253</v>
       </c>
       <c r="D45" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:19">
-      <c r="A46" s="16"/>
+      <c r="A46" s="6"/>
       <c r="B46" s="6">
         <v>255</v>
       </c>
       <c r="D46" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="1:19" hidden="1">
@@ -2551,10 +2549,10 @@
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="1:19">
@@ -2563,7 +2561,7 @@
         <v>258</v>
       </c>
       <c r="D48" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2572,7 +2570,7 @@
         <v>274</v>
       </c>
       <c r="D49" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2581,7 +2579,7 @@
         <v>279</v>
       </c>
       <c r="D50" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51" spans="1:4" hidden="1">
@@ -2592,13 +2590,13 @@
         <v>283</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52" spans="1:4" hidden="1">
       <c r="A52">
         <f>SUM(A2:A51)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B52">
         <v>50</v>
@@ -2607,11 +2605,11 @@
     <row r="53" spans="1:4">
       <c r="B53">
         <f>COUNT(B2:B51)-A52</f>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C53">
         <f>COUNT(A2:A51)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/preguntas/RevisionPreguntasDeExamen.xlsx
+++ b/preguntas/RevisionPreguntasDeExamen.xlsx
@@ -730,7 +730,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -758,7 +758,7 @@
     <row r="2" spans="1:19">
       <c r="A2">
         <f ca="1">ROUND((RAND()*17),2)</f>
-        <v>12.62</v>
+        <v>6.93</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -818,7 +818,7 @@
     <row r="3" spans="1:19">
       <c r="A3">
         <f t="shared" ref="A3:A16" ca="1" si="0">ROUND((RAND()*17),2)</f>
-        <v>11.43</v>
+        <v>6.22</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
@@ -878,7 +878,7 @@
     <row r="4" spans="1:19">
       <c r="A4">
         <f t="shared" ca="1" si="0"/>
-        <v>5.49</v>
+        <v>6.76</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
@@ -938,7 +938,7 @@
     <row r="5" spans="1:19">
       <c r="A5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.08</v>
+        <v>15.38</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>13</v>
@@ -996,7 +996,7 @@
     <row r="6" spans="1:19">
       <c r="A6">
         <f t="shared" ca="1" si="0"/>
-        <v>15.65</v>
+        <v>5.87</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>4</v>
@@ -1056,7 +1056,7 @@
     <row r="7" spans="1:19">
       <c r="A7">
         <f t="shared" ca="1" si="0"/>
-        <v>3.1</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -1116,7 +1116,7 @@
     <row r="8" spans="1:19">
       <c r="A8">
         <f t="shared" ca="1" si="0"/>
-        <v>8.39</v>
+        <v>11.04</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>6</v>
@@ -1176,7 +1176,7 @@
     <row r="9" spans="1:19">
       <c r="A9">
         <f t="shared" ca="1" si="0"/>
-        <v>6.75</v>
+        <v>8.3699999999999992</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>14</v>
@@ -1234,7 +1234,7 @@
     <row r="10" spans="1:19">
       <c r="A10">
         <f t="shared" ca="1" si="0"/>
-        <v>6.07</v>
+        <v>16.559999999999999</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>14</v>
@@ -1292,7 +1292,7 @@
     <row r="11" spans="1:19">
       <c r="A11">
         <f t="shared" ca="1" si="0"/>
-        <v>1.02</v>
+        <v>12.72</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>15</v>
@@ -1350,7 +1350,7 @@
     <row r="12" spans="1:19">
       <c r="A12">
         <f t="shared" ca="1" si="0"/>
-        <v>6.61</v>
+        <v>2.13</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>8</v>
@@ -1408,7 +1408,7 @@
     <row r="13" spans="1:19">
       <c r="A13">
         <f t="shared" ca="1" si="0"/>
-        <v>9.35</v>
+        <v>16.989999999999998</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>9</v>
@@ -1466,7 +1466,7 @@
     <row r="14" spans="1:19">
       <c r="A14">
         <f t="shared" ca="1" si="0"/>
-        <v>2.95</v>
+        <v>6.85</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>12</v>
@@ -1526,7 +1526,7 @@
     <row r="15" spans="1:19">
       <c r="A15">
         <f t="shared" ca="1" si="0"/>
-        <v>2.13</v>
+        <v>3.92</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>10</v>
@@ -1586,7 +1586,7 @@
     <row r="16" spans="1:19">
       <c r="A16">
         <f t="shared" ca="1" si="0"/>
-        <v>8.25</v>
+        <v>1.44</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>0</v>
@@ -2003,8 +2003,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:S53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2312,8 +2312,10 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
-      <c r="A26" s="6"/>
+    <row r="26" spans="1:17" hidden="1">
+      <c r="A26" s="6">
+        <v>1</v>
+      </c>
       <c r="B26" s="12">
         <v>167</v>
       </c>
@@ -2596,7 +2598,7 @@
     <row r="52" spans="1:4" hidden="1">
       <c r="A52">
         <f>SUM(A2:A51)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B52">
         <v>50</v>
@@ -2605,11 +2607,11 @@
     <row r="53" spans="1:4">
       <c r="B53">
         <f>COUNT(B2:B51)-A52</f>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C53">
         <f>COUNT(A2:A51)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/preguntas/RevisionPreguntasDeExamen.xlsx
+++ b/preguntas/RevisionPreguntasDeExamen.xlsx
@@ -730,7 +730,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -758,7 +758,7 @@
     <row r="2" spans="1:19">
       <c r="A2">
         <f ca="1">ROUND((RAND()*17),2)</f>
-        <v>6.93</v>
+        <v>14.71</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -818,7 +818,7 @@
     <row r="3" spans="1:19">
       <c r="A3">
         <f t="shared" ref="A3:A16" ca="1" si="0">ROUND((RAND()*17),2)</f>
-        <v>6.22</v>
+        <v>11.5</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
@@ -878,7 +878,7 @@
     <row r="4" spans="1:19">
       <c r="A4">
         <f t="shared" ca="1" si="0"/>
-        <v>6.76</v>
+        <v>15.68</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
@@ -938,7 +938,7 @@
     <row r="5" spans="1:19">
       <c r="A5">
         <f t="shared" ca="1" si="0"/>
-        <v>15.38</v>
+        <v>16.989999999999998</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>13</v>
@@ -996,7 +996,7 @@
     <row r="6" spans="1:19">
       <c r="A6">
         <f t="shared" ca="1" si="0"/>
-        <v>5.87</v>
+        <v>15.65</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>4</v>
@@ -1056,7 +1056,7 @@
     <row r="7" spans="1:19">
       <c r="A7">
         <f t="shared" ca="1" si="0"/>
-        <v>4.4000000000000004</v>
+        <v>10.15</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -1116,7 +1116,7 @@
     <row r="8" spans="1:19">
       <c r="A8">
         <f t="shared" ca="1" si="0"/>
-        <v>11.04</v>
+        <v>4.07</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>6</v>
@@ -1176,7 +1176,7 @@
     <row r="9" spans="1:19">
       <c r="A9">
         <f t="shared" ca="1" si="0"/>
-        <v>8.3699999999999992</v>
+        <v>7.77</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>14</v>
@@ -1234,7 +1234,7 @@
     <row r="10" spans="1:19">
       <c r="A10">
         <f t="shared" ca="1" si="0"/>
-        <v>16.559999999999999</v>
+        <v>10.18</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>14</v>
@@ -1292,7 +1292,7 @@
     <row r="11" spans="1:19">
       <c r="A11">
         <f t="shared" ca="1" si="0"/>
-        <v>12.72</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>15</v>
@@ -1350,7 +1350,7 @@
     <row r="12" spans="1:19">
       <c r="A12">
         <f t="shared" ca="1" si="0"/>
-        <v>2.13</v>
+        <v>4.53</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>8</v>
@@ -1408,7 +1408,7 @@
     <row r="13" spans="1:19">
       <c r="A13">
         <f t="shared" ca="1" si="0"/>
-        <v>16.989999999999998</v>
+        <v>3.91</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>9</v>
@@ -1466,7 +1466,7 @@
     <row r="14" spans="1:19">
       <c r="A14">
         <f t="shared" ca="1" si="0"/>
-        <v>6.85</v>
+        <v>8.3800000000000008</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>12</v>
@@ -1526,7 +1526,7 @@
     <row r="15" spans="1:19">
       <c r="A15">
         <f t="shared" ca="1" si="0"/>
-        <v>3.92</v>
+        <v>9.31</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>10</v>
@@ -1586,7 +1586,7 @@
     <row r="16" spans="1:19">
       <c r="A16">
         <f t="shared" ca="1" si="0"/>
-        <v>1.44</v>
+        <v>0.05</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>0</v>
@@ -2003,8 +2003,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:S53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2063,8 +2063,10 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="16"/>
+    <row r="5" spans="1:8" hidden="1">
+      <c r="A5" s="16">
+        <v>1</v>
+      </c>
       <c r="B5" s="12">
         <v>27</v>
       </c>
@@ -2386,8 +2388,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:19">
-      <c r="A33" s="16"/>
+    <row r="33" spans="1:19" hidden="1">
+      <c r="A33" s="16">
+        <v>1</v>
+      </c>
       <c r="B33" s="6">
         <v>174</v>
       </c>
@@ -2598,7 +2602,7 @@
     <row r="52" spans="1:4" hidden="1">
       <c r="A52">
         <f>SUM(A2:A51)</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B52">
         <v>50</v>
@@ -2607,11 +2611,11 @@
     <row r="53" spans="1:4">
       <c r="B53">
         <f>COUNT(B2:B51)-A52</f>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C53">
         <f>COUNT(A2:A51)</f>
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/preguntas/RevisionPreguntasDeExamen.xlsx
+++ b/preguntas/RevisionPreguntasDeExamen.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="70">
   <si>
     <t>Tejero Calderera, José Vicente</t>
   </si>
@@ -174,9 +174,6 @@
   </si>
   <si>
     <t>switch</t>
-  </si>
-  <si>
-    <t>ParametirezThreadStar</t>
   </si>
   <si>
     <t>float vs double</t>
@@ -730,7 +727,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -758,7 +755,7 @@
     <row r="2" spans="1:19">
       <c r="A2">
         <f ca="1">ROUND((RAND()*17),2)</f>
-        <v>14.71</v>
+        <v>3.59</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -818,7 +815,7 @@
     <row r="3" spans="1:19">
       <c r="A3">
         <f t="shared" ref="A3:A16" ca="1" si="0">ROUND((RAND()*17),2)</f>
-        <v>11.5</v>
+        <v>12.52</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
@@ -878,7 +875,7 @@
     <row r="4" spans="1:19">
       <c r="A4">
         <f t="shared" ca="1" si="0"/>
-        <v>15.68</v>
+        <v>14.68</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
@@ -938,7 +935,7 @@
     <row r="5" spans="1:19">
       <c r="A5">
         <f t="shared" ca="1" si="0"/>
-        <v>16.989999999999998</v>
+        <v>5.83</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>13</v>
@@ -996,7 +993,7 @@
     <row r="6" spans="1:19">
       <c r="A6">
         <f t="shared" ca="1" si="0"/>
-        <v>15.65</v>
+        <v>15.45</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>4</v>
@@ -1056,7 +1053,7 @@
     <row r="7" spans="1:19">
       <c r="A7">
         <f t="shared" ca="1" si="0"/>
-        <v>10.15</v>
+        <v>8.01</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -1116,7 +1113,7 @@
     <row r="8" spans="1:19">
       <c r="A8">
         <f t="shared" ca="1" si="0"/>
-        <v>4.07</v>
+        <v>16.420000000000002</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>6</v>
@@ -1176,7 +1173,7 @@
     <row r="9" spans="1:19">
       <c r="A9">
         <f t="shared" ca="1" si="0"/>
-        <v>7.77</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>14</v>
@@ -1234,7 +1231,7 @@
     <row r="10" spans="1:19">
       <c r="A10">
         <f t="shared" ca="1" si="0"/>
-        <v>10.18</v>
+        <v>7.73</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>14</v>
@@ -1292,7 +1289,7 @@
     <row r="11" spans="1:19">
       <c r="A11">
         <f t="shared" ca="1" si="0"/>
-        <v>2.0299999999999998</v>
+        <v>12.96</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>15</v>
@@ -1350,7 +1347,7 @@
     <row r="12" spans="1:19">
       <c r="A12">
         <f t="shared" ca="1" si="0"/>
-        <v>4.53</v>
+        <v>14.85</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>8</v>
@@ -1408,7 +1405,7 @@
     <row r="13" spans="1:19">
       <c r="A13">
         <f t="shared" ca="1" si="0"/>
-        <v>3.91</v>
+        <v>0.61</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>9</v>
@@ -1466,7 +1463,7 @@
     <row r="14" spans="1:19">
       <c r="A14">
         <f t="shared" ca="1" si="0"/>
-        <v>8.3800000000000008</v>
+        <v>0.77</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>12</v>
@@ -1526,7 +1523,7 @@
     <row r="15" spans="1:19">
       <c r="A15">
         <f t="shared" ca="1" si="0"/>
-        <v>9.31</v>
+        <v>5.35</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>10</v>
@@ -1586,7 +1583,7 @@
     <row r="16" spans="1:19">
       <c r="A16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.05</v>
+        <v>2.19</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>0</v>
@@ -1760,7 +1757,7 @@
         <v>85</v>
       </c>
       <c r="F20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="2:19">
@@ -1770,7 +1767,7 @@
         <v>86</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
@@ -2003,8 +2000,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:S53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2021,13 +2018,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" t="s">
         <v>56</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>57</v>
-      </c>
-      <c r="D1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:8" hidden="1">
@@ -2038,7 +2035,7 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:8" hidden="1">
@@ -2060,7 +2057,7 @@
         <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:8" hidden="1">
@@ -2071,7 +2068,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:8" hidden="1">
@@ -2082,7 +2079,7 @@
         <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:8" hidden="1">
@@ -2093,7 +2090,7 @@
         <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F7" t="s">
         <v>19</v>
@@ -2113,7 +2110,7 @@
         <v>61</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
         <v>21</v>
@@ -2130,7 +2127,7 @@
         <v>68</v>
       </c>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="6" customFormat="1" ht="27" customHeight="1">
@@ -2140,7 +2137,7 @@
       </c>
       <c r="C10"/>
       <c r="D10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E10"/>
     </row>
@@ -2150,7 +2147,7 @@
         <v>72</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:8" hidden="1">
@@ -2162,7 +2159,7 @@
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E12" s="16">
         <v>20</v>
@@ -2174,7 +2171,7 @@
         <v>74</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:8" hidden="1">
@@ -2196,7 +2193,7 @@
         <v>83</v>
       </c>
       <c r="D15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:8" hidden="1">
@@ -2207,7 +2204,7 @@
         <v>84</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:17" s="6" customFormat="1" hidden="1">
@@ -2219,7 +2216,7 @@
       </c>
       <c r="C17"/>
       <c r="D17" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E17"/>
     </row>
@@ -2240,7 +2237,7 @@
         <v>125</v>
       </c>
       <c r="D19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E19" s="15" t="s">
         <v>20</v>
@@ -2264,7 +2261,7 @@
         <v>127</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -2273,7 +2270,7 @@
         <v>139</v>
       </c>
       <c r="D21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:17" hidden="1">
@@ -2284,7 +2281,7 @@
         <v>144</v>
       </c>
       <c r="D22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -2293,7 +2290,7 @@
         <v>161</v>
       </c>
       <c r="D23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -2302,7 +2299,7 @@
         <v>165</v>
       </c>
       <c r="D24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -2311,7 +2308,7 @@
         <v>166</v>
       </c>
       <c r="D25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:17" hidden="1">
@@ -2322,7 +2319,7 @@
         <v>167</v>
       </c>
       <c r="D26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:17" hidden="1">
@@ -2333,7 +2330,7 @@
         <v>168</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:17" hidden="1">
@@ -2344,7 +2341,7 @@
         <v>169</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:17" hidden="1">
@@ -2364,7 +2361,7 @@
         <v>171</v>
       </c>
       <c r="D30" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E30" s="16"/>
     </row>
@@ -2416,7 +2413,7 @@
         <v>176</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:19" hidden="1">
@@ -2427,7 +2424,7 @@
         <v>177</v>
       </c>
       <c r="D36" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:19">
@@ -2461,7 +2458,7 @@
         <v>211</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:19" hidden="1">
@@ -2481,7 +2478,7 @@
         <v>234</v>
       </c>
       <c r="D40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:19">
@@ -2499,7 +2496,7 @@
         <v>240</v>
       </c>
       <c r="D42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:19">
@@ -2534,7 +2531,7 @@
         <v>253</v>
       </c>
       <c r="D45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:19">
@@ -2543,7 +2540,7 @@
         <v>255</v>
       </c>
       <c r="D46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:19" hidden="1">
@@ -2567,7 +2564,7 @@
         <v>258</v>
       </c>
       <c r="D48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2576,7 +2573,7 @@
         <v>274</v>
       </c>
       <c r="D49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2585,7 +2582,7 @@
         <v>279</v>
       </c>
       <c r="D50" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:4" hidden="1">

--- a/preguntas/RevisionPreguntasDeExamen.xlsx
+++ b/preguntas/RevisionPreguntasDeExamen.xlsx
@@ -102,9 +102,6 @@
     <t>Match</t>
   </si>
   <si>
-    <t>hash de un filename</t>
-  </si>
-  <si>
     <t>interfaces</t>
   </si>
   <si>
@@ -273,6 +270,9 @@
   </si>
   <si>
     <t>extension metodos</t>
+  </si>
+  <si>
+    <t>hash de un filename ERRATA</t>
   </si>
 </sst>
 </file>
@@ -390,7 +390,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -421,6 +421,7 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -727,7 +728,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -755,7 +756,7 @@
     <row r="2" spans="1:19">
       <c r="A2">
         <f ca="1">ROUND((RAND()*17),2)</f>
-        <v>3.59</v>
+        <v>6.44</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -815,7 +816,7 @@
     <row r="3" spans="1:19">
       <c r="A3">
         <f t="shared" ref="A3:A16" ca="1" si="0">ROUND((RAND()*17),2)</f>
-        <v>12.52</v>
+        <v>11.6</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
@@ -875,7 +876,7 @@
     <row r="4" spans="1:19">
       <c r="A4">
         <f t="shared" ca="1" si="0"/>
-        <v>14.68</v>
+        <v>10.24</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
@@ -935,7 +936,7 @@
     <row r="5" spans="1:19">
       <c r="A5">
         <f t="shared" ca="1" si="0"/>
-        <v>5.83</v>
+        <v>5.89</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>13</v>
@@ -993,7 +994,7 @@
     <row r="6" spans="1:19">
       <c r="A6">
         <f t="shared" ca="1" si="0"/>
-        <v>15.45</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>4</v>
@@ -1053,7 +1054,7 @@
     <row r="7" spans="1:19">
       <c r="A7">
         <f t="shared" ca="1" si="0"/>
-        <v>8.01</v>
+        <v>13.7</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -1113,7 +1114,7 @@
     <row r="8" spans="1:19">
       <c r="A8">
         <f t="shared" ca="1" si="0"/>
-        <v>16.420000000000002</v>
+        <v>11.49</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>6</v>
@@ -1173,7 +1174,7 @@
     <row r="9" spans="1:19">
       <c r="A9">
         <f t="shared" ca="1" si="0"/>
-        <v>4.1500000000000004</v>
+        <v>3.69</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>14</v>
@@ -1231,7 +1232,7 @@
     <row r="10" spans="1:19">
       <c r="A10">
         <f t="shared" ca="1" si="0"/>
-        <v>7.73</v>
+        <v>5.15</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>14</v>
@@ -1289,7 +1290,7 @@
     <row r="11" spans="1:19">
       <c r="A11">
         <f t="shared" ca="1" si="0"/>
-        <v>12.96</v>
+        <v>8.43</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>15</v>
@@ -1347,7 +1348,7 @@
     <row r="12" spans="1:19">
       <c r="A12">
         <f t="shared" ca="1" si="0"/>
-        <v>14.85</v>
+        <v>8.5</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>8</v>
@@ -1405,7 +1406,7 @@
     <row r="13" spans="1:19">
       <c r="A13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61</v>
+        <v>10.23</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>9</v>
@@ -1463,7 +1464,7 @@
     <row r="14" spans="1:19">
       <c r="A14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77</v>
+        <v>4.42</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>12</v>
@@ -1523,7 +1524,7 @@
     <row r="15" spans="1:19">
       <c r="A15">
         <f t="shared" ca="1" si="0"/>
-        <v>5.35</v>
+        <v>8.9</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>10</v>
@@ -1583,7 +1584,7 @@
     <row r="16" spans="1:19">
       <c r="A16">
         <f t="shared" ca="1" si="0"/>
-        <v>2.19</v>
+        <v>5.51</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>0</v>
@@ -1757,7 +1758,7 @@
         <v>85</v>
       </c>
       <c r="F20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="2:19">
@@ -1767,7 +1768,7 @@
         <v>86</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
@@ -2000,8 +2001,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:S53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2018,13 +2019,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
         <v>55</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>56</v>
-      </c>
-      <c r="D1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:8" hidden="1">
@@ -2035,7 +2036,7 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:8" hidden="1">
@@ -2046,7 +2047,7 @@
         <v>19</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:8" hidden="1">
@@ -2057,7 +2058,7 @@
         <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:8" hidden="1">
@@ -2068,7 +2069,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:8" hidden="1">
@@ -2079,7 +2080,7 @@
         <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:8" hidden="1">
@@ -2090,7 +2091,7 @@
         <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F7" t="s">
         <v>19</v>
@@ -2110,7 +2111,7 @@
         <v>61</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
         <v>21</v>
@@ -2127,7 +2128,7 @@
         <v>68</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="6" customFormat="1" ht="27" customHeight="1">
@@ -2137,7 +2138,7 @@
       </c>
       <c r="C10"/>
       <c r="D10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E10"/>
     </row>
@@ -2147,7 +2148,7 @@
         <v>72</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:8" hidden="1">
@@ -2159,7 +2160,7 @@
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E12" s="16">
         <v>20</v>
@@ -2171,7 +2172,7 @@
         <v>74</v>
       </c>
       <c r="D13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:8" hidden="1">
@@ -2182,7 +2183,7 @@
         <v>78</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:8" hidden="1">
@@ -2193,7 +2194,7 @@
         <v>83</v>
       </c>
       <c r="D15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:8" hidden="1">
@@ -2204,7 +2205,7 @@
         <v>84</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:17" s="6" customFormat="1" hidden="1">
@@ -2216,7 +2217,7 @@
       </c>
       <c r="C17"/>
       <c r="D17" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E17"/>
     </row>
@@ -2237,7 +2238,7 @@
         <v>125</v>
       </c>
       <c r="D19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E19" s="15" t="s">
         <v>20</v>
@@ -2261,7 +2262,7 @@
         <v>127</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -2270,7 +2271,7 @@
         <v>139</v>
       </c>
       <c r="D21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:17" hidden="1">
@@ -2281,7 +2282,7 @@
         <v>144</v>
       </c>
       <c r="D22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -2290,7 +2291,7 @@
         <v>161</v>
       </c>
       <c r="D23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -2299,7 +2300,7 @@
         <v>165</v>
       </c>
       <c r="D24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -2308,7 +2309,7 @@
         <v>166</v>
       </c>
       <c r="D25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:17" hidden="1">
@@ -2319,7 +2320,7 @@
         <v>167</v>
       </c>
       <c r="D26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:17" hidden="1">
@@ -2330,7 +2331,7 @@
         <v>168</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:17" hidden="1">
@@ -2341,7 +2342,7 @@
         <v>169</v>
       </c>
       <c r="D28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:17" hidden="1">
@@ -2352,7 +2353,7 @@
         <v>170</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2361,17 +2362,19 @@
         <v>171</v>
       </c>
       <c r="D30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E30" s="16"/>
     </row>
-    <row r="31" spans="1:17">
-      <c r="A31" s="16"/>
+    <row r="31" spans="1:17" hidden="1">
+      <c r="A31" s="16">
+        <v>1</v>
+      </c>
       <c r="B31" s="6">
         <v>172</v>
       </c>
-      <c r="D31" t="s">
-        <v>23</v>
+      <c r="D31" s="20" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:17" hidden="1">
@@ -2382,7 +2385,7 @@
         <v>173</v>
       </c>
       <c r="D32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:19" hidden="1">
@@ -2393,7 +2396,7 @@
         <v>174</v>
       </c>
       <c r="D33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:19">
@@ -2402,7 +2405,7 @@
         <v>175</v>
       </c>
       <c r="D34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:19" hidden="1">
@@ -2413,7 +2416,7 @@
         <v>176</v>
       </c>
       <c r="D35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:19" hidden="1">
@@ -2424,7 +2427,7 @@
         <v>177</v>
       </c>
       <c r="D36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:19">
@@ -2434,7 +2437,7 @@
       </c>
       <c r="C37" s="15"/>
       <c r="D37" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E37" s="15"/>
       <c r="F37" s="3"/>
@@ -2458,7 +2461,7 @@
         <v>211</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:19" hidden="1">
@@ -2469,7 +2472,7 @@
         <v>228</v>
       </c>
       <c r="D39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:19">
@@ -2478,7 +2481,7 @@
         <v>234</v>
       </c>
       <c r="D40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:19">
@@ -2487,7 +2490,7 @@
         <v>237</v>
       </c>
       <c r="D41" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:19">
@@ -2496,7 +2499,7 @@
         <v>240</v>
       </c>
       <c r="D42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" spans="1:19">
@@ -2505,7 +2508,7 @@
         <v>245</v>
       </c>
       <c r="D43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="1:19" hidden="1">
@@ -2517,10 +2520,10 @@
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="1:19" hidden="1">
@@ -2531,7 +2534,7 @@
         <v>253</v>
       </c>
       <c r="D45" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" spans="1:19">
@@ -2540,7 +2543,7 @@
         <v>255</v>
       </c>
       <c r="D46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="47" spans="1:19" hidden="1">
@@ -2552,10 +2555,10 @@
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E47" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="48" spans="1:19">
@@ -2564,7 +2567,7 @@
         <v>258</v>
       </c>
       <c r="D48" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2573,7 +2576,7 @@
         <v>274</v>
       </c>
       <c r="D49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2582,7 +2585,7 @@
         <v>279</v>
       </c>
       <c r="D50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:4" hidden="1">
@@ -2593,13 +2596,13 @@
         <v>283</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52" spans="1:4" hidden="1">
       <c r="A52">
         <f>SUM(A2:A51)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B52">
         <v>50</v>
@@ -2608,11 +2611,11 @@
     <row r="53" spans="1:4">
       <c r="B53">
         <f>COUNT(B2:B51)-A52</f>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C53">
         <f>COUNT(A2:A51)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/preguntas/RevisionPreguntasDeExamen.xlsx
+++ b/preguntas/RevisionPreguntasDeExamen.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="88">
   <si>
     <t>Tejero Calderera, José Vicente</t>
   </si>
@@ -274,12 +274,66 @@
   <si>
     <t>hash de un filename ERRATA</t>
   </si>
+  <si>
+    <t>Mac</t>
+  </si>
+  <si>
+    <t>Algoritmo de hash con claves de MAC.</t>
+  </si>
+  <si>
+    <t>Md2</t>
+  </si>
+  <si>
+    <t>Algoritmo de hash MD2.</t>
+  </si>
+  <si>
+    <t>Md4</t>
+  </si>
+  <si>
+    <t>Algoritmo de hash MD4.</t>
+  </si>
+  <si>
+    <t>Md5</t>
+  </si>
+  <si>
+    <t>Algoritmo de hash MD5.</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>No hay ningún algoritmo de hash.</t>
+  </si>
+  <si>
+    <t>Sha</t>
+  </si>
+  <si>
+    <t>Algoritmo de hash SHA.</t>
+  </si>
+  <si>
+    <t>Sha256</t>
+  </si>
+  <si>
+    <t>Algoritmo hash SHA-256.</t>
+  </si>
+  <si>
+    <t>Sha384</t>
+  </si>
+  <si>
+    <t>Algoritmo hash SHA-384.</t>
+  </si>
+  <si>
+    <t>Sha512</t>
+  </si>
+  <si>
+    <t>Algoritmo hash SHA-512.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -312,8 +366,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF171717"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -362,6 +422,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -390,7 +456,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -422,6 +488,9 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -728,7 +797,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -756,7 +825,7 @@
     <row r="2" spans="1:19">
       <c r="A2">
         <f ca="1">ROUND((RAND()*17),2)</f>
-        <v>6.44</v>
+        <v>2.36</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -816,7 +885,7 @@
     <row r="3" spans="1:19">
       <c r="A3">
         <f t="shared" ref="A3:A16" ca="1" si="0">ROUND((RAND()*17),2)</f>
-        <v>11.6</v>
+        <v>12.83</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
@@ -876,7 +945,7 @@
     <row r="4" spans="1:19">
       <c r="A4">
         <f t="shared" ca="1" si="0"/>
-        <v>10.24</v>
+        <v>7.49</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
@@ -936,7 +1005,7 @@
     <row r="5" spans="1:19">
       <c r="A5">
         <f t="shared" ca="1" si="0"/>
-        <v>5.89</v>
+        <v>5.01</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>13</v>
@@ -994,7 +1063,7 @@
     <row r="6" spans="1:19">
       <c r="A6">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2400000000000002</v>
+        <v>9.77</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>4</v>
@@ -1054,7 +1123,7 @@
     <row r="7" spans="1:19">
       <c r="A7">
         <f t="shared" ca="1" si="0"/>
-        <v>13.7</v>
+        <v>12.85</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -1114,7 +1183,7 @@
     <row r="8" spans="1:19">
       <c r="A8">
         <f t="shared" ca="1" si="0"/>
-        <v>11.49</v>
+        <v>1.63</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>6</v>
@@ -1174,7 +1243,7 @@
     <row r="9" spans="1:19">
       <c r="A9">
         <f t="shared" ca="1" si="0"/>
-        <v>3.69</v>
+        <v>11.16</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>14</v>
@@ -1232,7 +1301,7 @@
     <row r="10" spans="1:19">
       <c r="A10">
         <f t="shared" ca="1" si="0"/>
-        <v>5.15</v>
+        <v>1.82</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>14</v>
@@ -1290,7 +1359,7 @@
     <row r="11" spans="1:19">
       <c r="A11">
         <f t="shared" ca="1" si="0"/>
-        <v>8.43</v>
+        <v>0.52</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>15</v>
@@ -1348,7 +1417,7 @@
     <row r="12" spans="1:19">
       <c r="A12">
         <f t="shared" ca="1" si="0"/>
-        <v>8.5</v>
+        <v>4</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>8</v>
@@ -1406,7 +1475,7 @@
     <row r="13" spans="1:19">
       <c r="A13">
         <f t="shared" ca="1" si="0"/>
-        <v>10.23</v>
+        <v>1.98</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>9</v>
@@ -1464,7 +1533,7 @@
     <row r="14" spans="1:19">
       <c r="A14">
         <f t="shared" ca="1" si="0"/>
-        <v>4.42</v>
+        <v>5.6</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>12</v>
@@ -1524,7 +1593,7 @@
     <row r="15" spans="1:19">
       <c r="A15">
         <f t="shared" ca="1" si="0"/>
-        <v>8.9</v>
+        <v>11.04</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>10</v>
@@ -1584,7 +1653,7 @@
     <row r="16" spans="1:19">
       <c r="A16">
         <f t="shared" ca="1" si="0"/>
-        <v>5.51</v>
+        <v>13.07</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>0</v>
@@ -1999,10 +2068,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:S53"/>
+  <dimension ref="A1:S65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2011,8 +2080,8 @@
     <col min="3" max="3" width="3.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="57.140625" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="66.140625" customWidth="1"/>
     <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="18" width="4" bestFit="1" customWidth="1"/>
   </cols>
@@ -2303,8 +2372,10 @@
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
-      <c r="A25" s="16"/>
+    <row r="25" spans="1:17" hidden="1">
+      <c r="A25" s="16">
+        <v>1</v>
+      </c>
       <c r="B25" s="12">
         <v>166</v>
       </c>
@@ -2570,7 +2641,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:7">
       <c r="A49" s="16"/>
       <c r="B49" s="14">
         <v>274</v>
@@ -2579,7 +2650,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:7">
       <c r="A50" s="16"/>
       <c r="B50" s="14">
         <v>279</v>
@@ -2588,7 +2659,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:4" hidden="1">
+    <row r="51" spans="1:7" hidden="1">
       <c r="A51" s="18">
         <v>1</v>
       </c>
@@ -2599,23 +2670,122 @@
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="1:4" hidden="1">
+    <row r="52" spans="1:7" hidden="1">
       <c r="A52">
         <f>SUM(A2:A51)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B52">
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:7">
       <c r="B53">
         <f>COUNT(B2:B51)-A52</f>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C53">
         <f>COUNT(A2:A51)</f>
-        <v>28</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="15" customHeight="1">
+      <c r="E57" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="F57" s="21">
+        <v>32773</v>
+      </c>
+      <c r="G57" s="21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="15" customHeight="1">
+      <c r="E58" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="F58" s="21">
+        <v>32769</v>
+      </c>
+      <c r="G58" s="21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="15" customHeight="1">
+      <c r="E59" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="F59" s="21">
+        <v>32770</v>
+      </c>
+      <c r="G59" s="21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="15" customHeight="1">
+      <c r="E60" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="F60" s="21">
+        <v>32771</v>
+      </c>
+      <c r="G60" s="21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="15" customHeight="1">
+      <c r="E61" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="F61" s="21">
+        <v>0</v>
+      </c>
+      <c r="G61" s="21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="15" customHeight="1">
+      <c r="E62" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="F62" s="21">
+        <v>32772</v>
+      </c>
+      <c r="G62" s="21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="15" customHeight="1">
+      <c r="E63" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="F63" s="21">
+        <v>32780</v>
+      </c>
+      <c r="G63" s="21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="15" customHeight="1">
+      <c r="E64" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="F64" s="21">
+        <v>32781</v>
+      </c>
+      <c r="G64" s="21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="65" spans="5:7" ht="15" customHeight="1">
+      <c r="E65" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="F65" s="21">
+        <v>32782</v>
+      </c>
+      <c r="G65" s="21" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/preguntas/RevisionPreguntasDeExamen.xlsx
+++ b/preguntas/RevisionPreguntasDeExamen.xlsx
@@ -495,7 +495,16 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -797,7 +806,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -825,7 +834,7 @@
     <row r="2" spans="1:19">
       <c r="A2">
         <f ca="1">ROUND((RAND()*17),2)</f>
-        <v>2.36</v>
+        <v>3.69</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -885,7 +894,7 @@
     <row r="3" spans="1:19">
       <c r="A3">
         <f t="shared" ref="A3:A16" ca="1" si="0">ROUND((RAND()*17),2)</f>
-        <v>12.83</v>
+        <v>10.08</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
@@ -945,7 +954,7 @@
     <row r="4" spans="1:19">
       <c r="A4">
         <f t="shared" ca="1" si="0"/>
-        <v>7.49</v>
+        <v>8.67</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
@@ -1005,7 +1014,7 @@
     <row r="5" spans="1:19">
       <c r="A5">
         <f t="shared" ca="1" si="0"/>
-        <v>5.01</v>
+        <v>9.5</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>13</v>
@@ -1063,7 +1072,7 @@
     <row r="6" spans="1:19">
       <c r="A6">
         <f t="shared" ca="1" si="0"/>
-        <v>9.77</v>
+        <v>16.07</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>4</v>
@@ -1123,7 +1132,7 @@
     <row r="7" spans="1:19">
       <c r="A7">
         <f t="shared" ca="1" si="0"/>
-        <v>12.85</v>
+        <v>0.93</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -1183,7 +1192,7 @@
     <row r="8" spans="1:19">
       <c r="A8">
         <f t="shared" ca="1" si="0"/>
-        <v>1.63</v>
+        <v>1.29</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>6</v>
@@ -1243,7 +1252,7 @@
     <row r="9" spans="1:19">
       <c r="A9">
         <f t="shared" ca="1" si="0"/>
-        <v>11.16</v>
+        <v>7.59</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>14</v>
@@ -1301,7 +1310,7 @@
     <row r="10" spans="1:19">
       <c r="A10">
         <f t="shared" ca="1" si="0"/>
-        <v>1.82</v>
+        <v>10.83</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>14</v>
@@ -1359,7 +1368,7 @@
     <row r="11" spans="1:19">
       <c r="A11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52</v>
+        <v>5.43</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>15</v>
@@ -1417,7 +1426,7 @@
     <row r="12" spans="1:19">
       <c r="A12">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>10.35</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>8</v>
@@ -1475,7 +1484,7 @@
     <row r="13" spans="1:19">
       <c r="A13">
         <f t="shared" ca="1" si="0"/>
-        <v>1.98</v>
+        <v>6.8</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>9</v>
@@ -1533,7 +1542,7 @@
     <row r="14" spans="1:19">
       <c r="A14">
         <f t="shared" ca="1" si="0"/>
-        <v>5.6</v>
+        <v>4.67</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>12</v>
@@ -1593,7 +1602,7 @@
     <row r="15" spans="1:19">
       <c r="A15">
         <f t="shared" ca="1" si="0"/>
-        <v>11.04</v>
+        <v>15.42</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>10</v>
@@ -1653,7 +1662,7 @@
     <row r="16" spans="1:19">
       <c r="A16">
         <f t="shared" ca="1" si="0"/>
-        <v>13.07</v>
+        <v>3.24</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>0</v>
@@ -2071,7 +2080,7 @@
   <dimension ref="A1:S65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2200,7 +2209,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="6" customFormat="1" ht="27" customHeight="1">
+    <row r="10" spans="1:8" s="6" customFormat="1" ht="27" hidden="1" customHeight="1">
       <c r="A10" s="16"/>
       <c r="B10" s="14">
         <v>69</v>
@@ -2211,7 +2220,7 @@
       </c>
       <c r="E10"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" hidden="1">
       <c r="A11" s="16"/>
       <c r="B11" s="14">
         <v>72</v>
@@ -2235,7 +2244,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" hidden="1">
       <c r="A13" s="16"/>
       <c r="B13" s="12">
         <v>74</v>
@@ -2325,7 +2334,7 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" hidden="1">
       <c r="A20" s="16"/>
       <c r="B20" s="14">
         <v>127</v>
@@ -2334,7 +2343,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" hidden="1">
       <c r="A21" s="16"/>
       <c r="B21" s="14">
         <v>139</v>
@@ -2354,7 +2363,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" hidden="1">
       <c r="A23" s="16"/>
       <c r="B23" s="14">
         <v>161</v>
@@ -2363,7 +2372,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" hidden="1">
       <c r="A24" s="16"/>
       <c r="B24" s="14">
         <v>165</v>
@@ -2427,7 +2436,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" hidden="1">
       <c r="A30" s="16"/>
       <c r="B30" s="12">
         <v>171</v>
@@ -2546,7 +2555,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:19">
+    <row r="40" spans="1:19" hidden="1">
       <c r="A40" s="16"/>
       <c r="B40" s="14">
         <v>234</v>
@@ -2564,7 +2573,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:19">
+    <row r="42" spans="1:19" hidden="1">
       <c r="A42" s="16"/>
       <c r="B42" s="14">
         <v>240</v>
@@ -2608,8 +2617,10 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:19">
-      <c r="A46" s="6"/>
+    <row r="46" spans="1:19" hidden="1">
+      <c r="A46" s="6">
+        <v>1</v>
+      </c>
       <c r="B46" s="6">
         <v>255</v>
       </c>
@@ -2632,7 +2643,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:19">
+    <row r="48" spans="1:19" hidden="1">
       <c r="A48" s="16"/>
       <c r="B48" s="14">
         <v>258</v>
@@ -2641,7 +2652,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" hidden="1">
       <c r="A49" s="16"/>
       <c r="B49" s="14">
         <v>274</v>
@@ -2650,7 +2661,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" hidden="1">
       <c r="A50" s="16"/>
       <c r="B50" s="14">
         <v>279</v>
@@ -2673,20 +2684,20 @@
     <row r="52" spans="1:7" hidden="1">
       <c r="A52">
         <f>SUM(A2:A51)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B52">
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" hidden="1">
       <c r="B53">
         <f>COUNT(B2:B51)-A52</f>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C53">
         <f>COUNT(A2:A51)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="15" customHeight="1">
@@ -2792,6 +2803,9 @@
   <autoFilter ref="A1:B53">
     <filterColumn colId="0">
       <filters blank="1"/>
+    </filterColumn>
+    <filterColumn colId="1">
+      <colorFilter dxfId="0"/>
     </filterColumn>
   </autoFilter>
   <sortState ref="B1:E52">

--- a/preguntas/RevisionPreguntasDeExamen.xlsx
+++ b/preguntas/RevisionPreguntasDeExamen.xlsx
@@ -806,7 +806,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -834,7 +834,7 @@
     <row r="2" spans="1:19">
       <c r="A2">
         <f ca="1">ROUND((RAND()*17),2)</f>
-        <v>3.69</v>
+        <v>3.88</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -894,7 +894,7 @@
     <row r="3" spans="1:19">
       <c r="A3">
         <f t="shared" ref="A3:A16" ca="1" si="0">ROUND((RAND()*17),2)</f>
-        <v>10.08</v>
+        <v>2.62</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
@@ -954,7 +954,7 @@
     <row r="4" spans="1:19">
       <c r="A4">
         <f t="shared" ca="1" si="0"/>
-        <v>8.67</v>
+        <v>4.25</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
@@ -1014,7 +1014,7 @@
     <row r="5" spans="1:19">
       <c r="A5">
         <f t="shared" ca="1" si="0"/>
-        <v>9.5</v>
+        <v>13.67</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>13</v>
@@ -1072,7 +1072,7 @@
     <row r="6" spans="1:19">
       <c r="A6">
         <f t="shared" ca="1" si="0"/>
-        <v>16.07</v>
+        <v>4.8899999999999997</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>4</v>
@@ -1132,7 +1132,7 @@
     <row r="7" spans="1:19">
       <c r="A7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.93</v>
+        <v>5.65</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -1192,7 +1192,7 @@
     <row r="8" spans="1:19">
       <c r="A8">
         <f t="shared" ca="1" si="0"/>
-        <v>1.29</v>
+        <v>3.63</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>6</v>
@@ -1252,7 +1252,7 @@
     <row r="9" spans="1:19">
       <c r="A9">
         <f t="shared" ca="1" si="0"/>
-        <v>7.59</v>
+        <v>1.55</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>14</v>
@@ -1310,7 +1310,7 @@
     <row r="10" spans="1:19">
       <c r="A10">
         <f t="shared" ca="1" si="0"/>
-        <v>10.83</v>
+        <v>0.85</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>14</v>
@@ -1368,7 +1368,7 @@
     <row r="11" spans="1:19">
       <c r="A11">
         <f t="shared" ca="1" si="0"/>
-        <v>5.43</v>
+        <v>9.73</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>15</v>
@@ -1426,7 +1426,7 @@
     <row r="12" spans="1:19">
       <c r="A12">
         <f t="shared" ca="1" si="0"/>
-        <v>10.35</v>
+        <v>15.68</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>8</v>
@@ -1484,7 +1484,7 @@
     <row r="13" spans="1:19">
       <c r="A13">
         <f t="shared" ca="1" si="0"/>
-        <v>6.8</v>
+        <v>10.58</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>9</v>
@@ -1542,7 +1542,7 @@
     <row r="14" spans="1:19">
       <c r="A14">
         <f t="shared" ca="1" si="0"/>
-        <v>4.67</v>
+        <v>7.61</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>12</v>
@@ -1602,7 +1602,7 @@
     <row r="15" spans="1:19">
       <c r="A15">
         <f t="shared" ca="1" si="0"/>
-        <v>15.42</v>
+        <v>10.27</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>10</v>
@@ -1662,7 +1662,7 @@
     <row r="16" spans="1:19">
       <c r="A16">
         <f t="shared" ca="1" si="0"/>
-        <v>3.24</v>
+        <v>0.39</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>0</v>
@@ -2080,7 +2080,7 @@
   <dimension ref="A1:S65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2479,8 +2479,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:19">
-      <c r="A34" s="6"/>
+    <row r="34" spans="1:19" hidden="1">
+      <c r="A34" s="6">
+        <v>1</v>
+      </c>
       <c r="B34" s="6">
         <v>175</v>
       </c>
@@ -2684,7 +2686,7 @@
     <row r="52" spans="1:7" hidden="1">
       <c r="A52">
         <f>SUM(A2:A51)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B52">
         <v>50</v>
@@ -2693,11 +2695,11 @@
     <row r="53" spans="1:7" hidden="1">
       <c r="B53">
         <f>COUNT(B2:B51)-A52</f>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C53">
         <f>COUNT(A2:A51)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="15" customHeight="1">

--- a/preguntas/RevisionPreguntasDeExamen.xlsx
+++ b/preguntas/RevisionPreguntasDeExamen.xlsx
@@ -456,7 +456,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -491,20 +491,12 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -806,7 +798,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -834,7 +826,7 @@
     <row r="2" spans="1:19">
       <c r="A2">
         <f ca="1">ROUND((RAND()*17),2)</f>
-        <v>3.88</v>
+        <v>2.39</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -894,7 +886,7 @@
     <row r="3" spans="1:19">
       <c r="A3">
         <f t="shared" ref="A3:A16" ca="1" si="0">ROUND((RAND()*17),2)</f>
-        <v>2.62</v>
+        <v>2.29</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
@@ -954,7 +946,7 @@
     <row r="4" spans="1:19">
       <c r="A4">
         <f t="shared" ca="1" si="0"/>
-        <v>4.25</v>
+        <v>10.58</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
@@ -1014,7 +1006,7 @@
     <row r="5" spans="1:19">
       <c r="A5">
         <f t="shared" ca="1" si="0"/>
-        <v>13.67</v>
+        <v>10.99</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>13</v>
@@ -1072,7 +1064,7 @@
     <row r="6" spans="1:19">
       <c r="A6">
         <f t="shared" ca="1" si="0"/>
-        <v>4.8899999999999997</v>
+        <v>7.9</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>4</v>
@@ -1132,7 +1124,7 @@
     <row r="7" spans="1:19">
       <c r="A7">
         <f t="shared" ca="1" si="0"/>
-        <v>5.65</v>
+        <v>9.5500000000000007</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -1192,7 +1184,7 @@
     <row r="8" spans="1:19">
       <c r="A8">
         <f t="shared" ca="1" si="0"/>
-        <v>3.63</v>
+        <v>7.9</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>6</v>
@@ -1252,7 +1244,7 @@
     <row r="9" spans="1:19">
       <c r="A9">
         <f t="shared" ca="1" si="0"/>
-        <v>1.55</v>
+        <v>7.46</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>14</v>
@@ -1310,7 +1302,7 @@
     <row r="10" spans="1:19">
       <c r="A10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85</v>
+        <v>2.71</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>14</v>
@@ -1368,7 +1360,7 @@
     <row r="11" spans="1:19">
       <c r="A11">
         <f t="shared" ca="1" si="0"/>
-        <v>9.73</v>
+        <v>8.9600000000000009</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>15</v>
@@ -1426,7 +1418,7 @@
     <row r="12" spans="1:19">
       <c r="A12">
         <f t="shared" ca="1" si="0"/>
-        <v>15.68</v>
+        <v>14.87</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>8</v>
@@ -1484,7 +1476,7 @@
     <row r="13" spans="1:19">
       <c r="A13">
         <f t="shared" ca="1" si="0"/>
-        <v>10.58</v>
+        <v>16.29</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>9</v>
@@ -1542,7 +1534,7 @@
     <row r="14" spans="1:19">
       <c r="A14">
         <f t="shared" ca="1" si="0"/>
-        <v>7.61</v>
+        <v>3.59</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>12</v>
@@ -1602,7 +1594,7 @@
     <row r="15" spans="1:19">
       <c r="A15">
         <f t="shared" ca="1" si="0"/>
-        <v>10.27</v>
+        <v>7.92</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>10</v>
@@ -1662,7 +1654,7 @@
     <row r="16" spans="1:19">
       <c r="A16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39</v>
+        <v>14.83</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>0</v>
@@ -2076,11 +2068,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:S65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2106,7 +2097,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1">
+    <row r="2" spans="1:8">
       <c r="A2" s="16">
         <v>1</v>
       </c>
@@ -2117,7 +2108,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:8" hidden="1">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2128,7 +2119,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:8" hidden="1">
+    <row r="4" spans="1:8">
       <c r="A4" s="16">
         <v>1</v>
       </c>
@@ -2139,7 +2130,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:8" hidden="1">
+    <row r="5" spans="1:8">
       <c r="A5" s="16">
         <v>1</v>
       </c>
@@ -2150,7 +2141,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:8" hidden="1">
+    <row r="6" spans="1:8">
       <c r="A6" s="16">
         <v>1</v>
       </c>
@@ -2161,7 +2152,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:8" hidden="1">
+    <row r="7" spans="1:8">
       <c r="A7" s="16">
         <v>1</v>
       </c>
@@ -2181,7 +2172,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:8" hidden="1">
+    <row r="8" spans="1:8">
       <c r="A8" s="6">
         <v>1</v>
       </c>
@@ -2198,7 +2189,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:8" hidden="1">
+    <row r="9" spans="1:8">
       <c r="A9" s="6">
         <v>1</v>
       </c>
@@ -2209,8 +2200,10 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="6" customFormat="1" ht="27" hidden="1" customHeight="1">
-      <c r="A10" s="16"/>
+    <row r="10" spans="1:8" s="6" customFormat="1" ht="27" customHeight="1">
+      <c r="A10" s="16">
+        <v>1</v>
+      </c>
       <c r="B10" s="14">
         <v>69</v>
       </c>
@@ -2220,8 +2213,10 @@
       </c>
       <c r="E10"/>
     </row>
-    <row r="11" spans="1:8" hidden="1">
-      <c r="A11" s="16"/>
+    <row r="11" spans="1:8">
+      <c r="A11" s="16">
+        <v>1</v>
+      </c>
       <c r="B11" s="14">
         <v>72</v>
       </c>
@@ -2229,7 +2224,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:8" hidden="1">
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>1</v>
       </c>
@@ -2244,7 +2239,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:8" hidden="1">
+    <row r="13" spans="1:8">
       <c r="A13" s="16"/>
       <c r="B13" s="12">
         <v>74</v>
@@ -2253,7 +2248,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:8" hidden="1">
+    <row r="14" spans="1:8">
       <c r="A14" s="16">
         <v>1</v>
       </c>
@@ -2264,7 +2259,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:8" hidden="1">
+    <row r="15" spans="1:8">
       <c r="A15" s="16">
         <v>1</v>
       </c>
@@ -2275,7 +2270,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1">
+    <row r="16" spans="1:8">
       <c r="A16" s="6">
         <v>1</v>
       </c>
@@ -2286,7 +2281,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:17" s="6" customFormat="1" hidden="1">
+    <row r="17" spans="1:17" s="6" customFormat="1">
       <c r="A17" s="6">
         <v>1</v>
       </c>
@@ -2300,6 +2295,9 @@
       <c r="E17"/>
     </row>
     <row r="18" spans="1:17">
+      <c r="A18" s="16">
+        <v>1</v>
+      </c>
       <c r="B18" s="6">
         <v>121</v>
       </c>
@@ -2311,7 +2309,9 @@
       </c>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="6"/>
+      <c r="A19" s="6">
+        <v>1</v>
+      </c>
       <c r="B19" s="11">
         <v>125</v>
       </c>
@@ -2334,8 +2334,10 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
     </row>
-    <row r="20" spans="1:17" hidden="1">
-      <c r="A20" s="16"/>
+    <row r="20" spans="1:17">
+      <c r="A20" s="22">
+        <v>1</v>
+      </c>
       <c r="B20" s="14">
         <v>127</v>
       </c>
@@ -2343,8 +2345,10 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:17" hidden="1">
-      <c r="A21" s="16"/>
+    <row r="21" spans="1:17">
+      <c r="A21" s="22">
+        <v>1</v>
+      </c>
       <c r="B21" s="14">
         <v>139</v>
       </c>
@@ -2352,7 +2356,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:17" hidden="1">
+    <row r="22" spans="1:17">
       <c r="A22" s="16">
         <v>1</v>
       </c>
@@ -2363,17 +2367,27 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:17" hidden="1">
-      <c r="A23" s="16"/>
+    <row r="23" spans="1:17">
+      <c r="A23" s="22">
+        <v>1</v>
+      </c>
       <c r="B23" s="14">
         <v>161</v>
       </c>
       <c r="D23" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" hidden="1">
-      <c r="A24" s="16"/>
+      <c r="G23">
+        <v>162</v>
+      </c>
+      <c r="H23">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="22">
+        <v>1</v>
+      </c>
       <c r="B24" s="14">
         <v>165</v>
       </c>
@@ -2381,7 +2395,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:17" hidden="1">
+    <row r="25" spans="1:17">
       <c r="A25" s="16">
         <v>1</v>
       </c>
@@ -2392,7 +2406,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:17" hidden="1">
+    <row r="26" spans="1:17">
       <c r="A26" s="6">
         <v>1</v>
       </c>
@@ -2403,7 +2417,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:17" hidden="1">
+    <row r="27" spans="1:17">
       <c r="A27" s="6">
         <v>1</v>
       </c>
@@ -2414,7 +2428,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:17" hidden="1">
+    <row r="28" spans="1:17">
       <c r="A28" s="18">
         <v>1</v>
       </c>
@@ -2425,7 +2439,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:17" hidden="1">
+    <row r="29" spans="1:17">
       <c r="A29" s="6">
         <v>1</v>
       </c>
@@ -2436,8 +2450,10 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:17" hidden="1">
-      <c r="A30" s="16"/>
+    <row r="30" spans="1:17">
+      <c r="A30" s="6">
+        <v>1</v>
+      </c>
       <c r="B30" s="12">
         <v>171</v>
       </c>
@@ -2446,7 +2462,7 @@
       </c>
       <c r="E30" s="16"/>
     </row>
-    <row r="31" spans="1:17" hidden="1">
+    <row r="31" spans="1:17">
       <c r="A31" s="16">
         <v>1</v>
       </c>
@@ -2457,7 +2473,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:17" hidden="1">
+    <row r="32" spans="1:17">
       <c r="A32" s="16">
         <v>1</v>
       </c>
@@ -2468,7 +2484,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:19" hidden="1">
+    <row r="33" spans="1:19">
       <c r="A33" s="16">
         <v>1</v>
       </c>
@@ -2479,7 +2495,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:19" hidden="1">
+    <row r="34" spans="1:19">
       <c r="A34" s="6">
         <v>1</v>
       </c>
@@ -2490,7 +2506,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:19" hidden="1">
+    <row r="35" spans="1:19">
       <c r="A35" s="6">
         <v>1</v>
       </c>
@@ -2501,7 +2517,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:19" hidden="1">
+    <row r="36" spans="1:19">
       <c r="A36" s="6">
         <v>1</v>
       </c>
@@ -2513,7 +2529,9 @@
       </c>
     </row>
     <row r="37" spans="1:19">
-      <c r="A37" s="6"/>
+      <c r="A37" s="6">
+        <v>1</v>
+      </c>
       <c r="B37" s="6">
         <v>194</v>
       </c>
@@ -2546,7 +2564,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="1:19" hidden="1">
+    <row r="39" spans="1:19">
       <c r="A39" s="6">
         <v>1</v>
       </c>
@@ -2557,8 +2575,10 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:19" hidden="1">
-      <c r="A40" s="16"/>
+    <row r="40" spans="1:19">
+      <c r="A40" s="6">
+        <v>1</v>
+      </c>
       <c r="B40" s="14">
         <v>234</v>
       </c>
@@ -2567,7 +2587,9 @@
       </c>
     </row>
     <row r="41" spans="1:19">
-      <c r="A41" s="6"/>
+      <c r="A41" s="6">
+        <v>1</v>
+      </c>
       <c r="B41" s="6">
         <v>237</v>
       </c>
@@ -2575,8 +2597,10 @@
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:19" hidden="1">
-      <c r="A42" s="16"/>
+    <row r="42" spans="1:19">
+      <c r="A42" s="6">
+        <v>1</v>
+      </c>
       <c r="B42" s="14">
         <v>240</v>
       </c>
@@ -2593,7 +2617,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:19" hidden="1">
+    <row r="44" spans="1:19">
       <c r="A44">
         <v>1</v>
       </c>
@@ -2608,7 +2632,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="1:19" hidden="1">
+    <row r="45" spans="1:19">
       <c r="A45" s="16">
         <v>1</v>
       </c>
@@ -2619,7 +2643,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:19" hidden="1">
+    <row r="46" spans="1:19">
       <c r="A46" s="6">
         <v>1</v>
       </c>
@@ -2630,7 +2654,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="47" spans="1:19" hidden="1">
+    <row r="47" spans="1:19">
       <c r="A47">
         <v>1</v>
       </c>
@@ -2645,7 +2669,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:19" hidden="1">
+    <row r="48" spans="1:19">
       <c r="A48" s="16"/>
       <c r="B48" s="14">
         <v>258</v>
@@ -2654,7 +2678,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="49" spans="1:7" hidden="1">
+    <row r="49" spans="1:7">
       <c r="A49" s="16"/>
       <c r="B49" s="14">
         <v>274</v>
@@ -2663,7 +2687,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:7" hidden="1">
+    <row r="50" spans="1:7">
       <c r="A50" s="16"/>
       <c r="B50" s="14">
         <v>279</v>
@@ -2672,7 +2696,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:7" hidden="1">
+    <row r="51" spans="1:7">
       <c r="A51" s="18">
         <v>1</v>
       </c>
@@ -2683,23 +2707,23 @@
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="1:7" hidden="1">
+    <row r="52" spans="1:7">
       <c r="A52">
         <f>SUM(A2:A51)</f>
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="B52">
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:7" hidden="1">
+    <row r="53" spans="1:7">
       <c r="B53">
         <f>COUNT(B2:B51)-A52</f>
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C53">
         <f>COUNT(A2:A51)</f>
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="15" customHeight="1">
@@ -2803,12 +2827,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:B53">
-    <filterColumn colId="0">
-      <filters blank="1"/>
-    </filterColumn>
-    <filterColumn colId="1">
-      <colorFilter dxfId="0"/>
-    </filterColumn>
+    <filterColumn colId="0"/>
+    <filterColumn colId="1"/>
   </autoFilter>
   <sortState ref="B1:E52">
     <sortCondition ref="B1:B52"/>

--- a/preguntas/RevisionPreguntasDeExamen.xlsx
+++ b/preguntas/RevisionPreguntasDeExamen.xlsx
@@ -224,9 +224,6 @@
     <t>crypto</t>
   </si>
   <si>
-    <t>linq pagging</t>
-  </si>
-  <si>
     <t>REALIZADA</t>
   </si>
   <si>
@@ -327,6 +324,9 @@
   </si>
   <si>
     <t>Algoritmo hash SHA-512.</t>
+  </si>
+  <si>
+    <t>LINQ skip take ERRATA</t>
   </si>
 </sst>
 </file>
@@ -798,7 +798,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -826,7 +826,7 @@
     <row r="2" spans="1:19">
       <c r="A2">
         <f ca="1">ROUND((RAND()*17),2)</f>
-        <v>2.39</v>
+        <v>10.65</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -886,7 +886,7 @@
     <row r="3" spans="1:19">
       <c r="A3">
         <f t="shared" ref="A3:A16" ca="1" si="0">ROUND((RAND()*17),2)</f>
-        <v>2.29</v>
+        <v>14.56</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
@@ -946,7 +946,7 @@
     <row r="4" spans="1:19">
       <c r="A4">
         <f t="shared" ca="1" si="0"/>
-        <v>10.58</v>
+        <v>0.48</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
@@ -1006,7 +1006,7 @@
     <row r="5" spans="1:19">
       <c r="A5">
         <f t="shared" ca="1" si="0"/>
-        <v>10.99</v>
+        <v>16.329999999999998</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>13</v>
@@ -1064,7 +1064,7 @@
     <row r="6" spans="1:19">
       <c r="A6">
         <f t="shared" ca="1" si="0"/>
-        <v>7.9</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>4</v>
@@ -1124,7 +1124,7 @@
     <row r="7" spans="1:19">
       <c r="A7">
         <f t="shared" ca="1" si="0"/>
-        <v>9.5500000000000007</v>
+        <v>11.27</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -1184,7 +1184,7 @@
     <row r="8" spans="1:19">
       <c r="A8">
         <f t="shared" ca="1" si="0"/>
-        <v>7.9</v>
+        <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>6</v>
@@ -1244,7 +1244,7 @@
     <row r="9" spans="1:19">
       <c r="A9">
         <f t="shared" ca="1" si="0"/>
-        <v>7.46</v>
+        <v>12.36</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>14</v>
@@ -1302,7 +1302,7 @@
     <row r="10" spans="1:19">
       <c r="A10">
         <f t="shared" ca="1" si="0"/>
-        <v>2.71</v>
+        <v>1.82</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>14</v>
@@ -1360,7 +1360,7 @@
     <row r="11" spans="1:19">
       <c r="A11">
         <f t="shared" ca="1" si="0"/>
-        <v>8.9600000000000009</v>
+        <v>11.49</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>15</v>
@@ -1418,7 +1418,7 @@
     <row r="12" spans="1:19">
       <c r="A12">
         <f t="shared" ca="1" si="0"/>
-        <v>14.87</v>
+        <v>4.21</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>8</v>
@@ -1476,7 +1476,7 @@
     <row r="13" spans="1:19">
       <c r="A13">
         <f t="shared" ca="1" si="0"/>
-        <v>16.29</v>
+        <v>15.29</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>9</v>
@@ -1534,7 +1534,7 @@
     <row r="14" spans="1:19">
       <c r="A14">
         <f t="shared" ca="1" si="0"/>
-        <v>3.59</v>
+        <v>4.46</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>12</v>
@@ -1594,7 +1594,7 @@
     <row r="15" spans="1:19">
       <c r="A15">
         <f t="shared" ca="1" si="0"/>
-        <v>7.92</v>
+        <v>3.93</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>10</v>
@@ -1654,7 +1654,7 @@
     <row r="16" spans="1:19">
       <c r="A16">
         <f t="shared" ca="1" si="0"/>
-        <v>14.83</v>
+        <v>13.24</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>0</v>
@@ -1828,7 +1828,7 @@
         <v>85</v>
       </c>
       <c r="F20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="2:19">
@@ -1838,7 +1838,7 @@
         <v>86</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
@@ -2068,10 +2068,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:S65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2088,16 +2089,16 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
         <v>54</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>55</v>
       </c>
-      <c r="D1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+    </row>
+    <row r="2" spans="1:8" hidden="1">
       <c r="A2" s="16">
         <v>1</v>
       </c>
@@ -2108,7 +2109,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" hidden="1">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2119,7 +2120,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" hidden="1">
       <c r="A4" s="16">
         <v>1</v>
       </c>
@@ -2130,7 +2131,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" hidden="1">
       <c r="A5" s="16">
         <v>1</v>
       </c>
@@ -2141,7 +2142,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" hidden="1">
       <c r="A6" s="16">
         <v>1</v>
       </c>
@@ -2152,7 +2153,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" hidden="1">
       <c r="A7" s="16">
         <v>1</v>
       </c>
@@ -2172,7 +2173,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" hidden="1">
       <c r="A8" s="6">
         <v>1</v>
       </c>
@@ -2189,7 +2190,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" hidden="1">
       <c r="A9" s="6">
         <v>1</v>
       </c>
@@ -2200,7 +2201,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="6" customFormat="1" ht="27" customHeight="1">
+    <row r="10" spans="1:8" s="6" customFormat="1" ht="27" hidden="1" customHeight="1">
       <c r="A10" s="16">
         <v>1</v>
       </c>
@@ -2213,7 +2214,7 @@
       </c>
       <c r="E10"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" hidden="1">
       <c r="A11" s="16">
         <v>1</v>
       </c>
@@ -2224,7 +2225,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" hidden="1">
       <c r="A12">
         <v>1</v>
       </c>
@@ -2245,10 +2246,10 @@
         <v>74</v>
       </c>
       <c r="D13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" hidden="1">
       <c r="A14" s="16">
         <v>1</v>
       </c>
@@ -2259,7 +2260,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" hidden="1">
       <c r="A15" s="16">
         <v>1</v>
       </c>
@@ -2267,10 +2268,10 @@
         <v>83</v>
       </c>
       <c r="D15" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" hidden="1">
       <c r="A16" s="6">
         <v>1</v>
       </c>
@@ -2281,7 +2282,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:17" s="6" customFormat="1">
+    <row r="17" spans="1:17" s="6" customFormat="1" hidden="1">
       <c r="A17" s="6">
         <v>1</v>
       </c>
@@ -2294,7 +2295,7 @@
       </c>
       <c r="E17"/>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" hidden="1">
       <c r="A18" s="16">
         <v>1</v>
       </c>
@@ -2308,7 +2309,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" hidden="1">
       <c r="A19" s="6">
         <v>1</v>
       </c>
@@ -2316,7 +2317,7 @@
         <v>125</v>
       </c>
       <c r="D19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E19" s="15" t="s">
         <v>20</v>
@@ -2334,7 +2335,7 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" hidden="1">
       <c r="A20" s="22">
         <v>1</v>
       </c>
@@ -2345,7 +2346,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" hidden="1">
       <c r="A21" s="22">
         <v>1</v>
       </c>
@@ -2356,7 +2357,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" hidden="1">
       <c r="A22" s="16">
         <v>1</v>
       </c>
@@ -2364,10 +2365,10 @@
         <v>144</v>
       </c>
       <c r="D22" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" hidden="1">
       <c r="A23" s="22">
         <v>1</v>
       </c>
@@ -2384,7 +2385,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" hidden="1">
       <c r="A24" s="22">
         <v>1</v>
       </c>
@@ -2392,10 +2393,10 @@
         <v>165</v>
       </c>
       <c r="D24" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" hidden="1">
       <c r="A25" s="16">
         <v>1</v>
       </c>
@@ -2406,7 +2407,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" hidden="1">
       <c r="A26" s="6">
         <v>1</v>
       </c>
@@ -2417,7 +2418,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" hidden="1">
       <c r="A27" s="6">
         <v>1</v>
       </c>
@@ -2428,7 +2429,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" hidden="1">
       <c r="A28" s="18">
         <v>1</v>
       </c>
@@ -2436,10 +2437,10 @@
         <v>169</v>
       </c>
       <c r="D28" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" hidden="1">
       <c r="A29" s="6">
         <v>1</v>
       </c>
@@ -2450,7 +2451,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" hidden="1">
       <c r="A30" s="6">
         <v>1</v>
       </c>
@@ -2462,7 +2463,7 @@
       </c>
       <c r="E30" s="16"/>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" hidden="1">
       <c r="A31" s="16">
         <v>1</v>
       </c>
@@ -2470,10 +2471,10 @@
         <v>172</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" hidden="1">
       <c r="A32" s="16">
         <v>1</v>
       </c>
@@ -2484,7 +2485,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:19">
+    <row r="33" spans="1:19" hidden="1">
       <c r="A33" s="16">
         <v>1</v>
       </c>
@@ -2495,7 +2496,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:19">
+    <row r="34" spans="1:19" hidden="1">
       <c r="A34" s="6">
         <v>1</v>
       </c>
@@ -2506,7 +2507,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:19">
+    <row r="35" spans="1:19" hidden="1">
       <c r="A35" s="6">
         <v>1</v>
       </c>
@@ -2514,10 +2515,10 @@
         <v>176</v>
       </c>
       <c r="D35" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" hidden="1">
       <c r="A36" s="6">
         <v>1</v>
       </c>
@@ -2525,10 +2526,10 @@
         <v>177</v>
       </c>
       <c r="D36" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" hidden="1">
       <c r="A37" s="6">
         <v>1</v>
       </c>
@@ -2561,10 +2562,10 @@
         <v>211</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" hidden="1">
       <c r="A39" s="6">
         <v>1</v>
       </c>
@@ -2575,7 +2576,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:19">
+    <row r="40" spans="1:19" hidden="1">
       <c r="A40" s="6">
         <v>1</v>
       </c>
@@ -2586,7 +2587,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:19">
+    <row r="41" spans="1:19" hidden="1">
       <c r="A41" s="6">
         <v>1</v>
       </c>
@@ -2597,7 +2598,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:19">
+    <row r="42" spans="1:19" hidden="1">
       <c r="A42" s="6">
         <v>1</v>
       </c>
@@ -2617,7 +2618,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:19">
+    <row r="44" spans="1:19" hidden="1">
       <c r="A44">
         <v>1</v>
       </c>
@@ -2632,7 +2633,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="1:19">
+    <row r="45" spans="1:19" hidden="1">
       <c r="A45" s="16">
         <v>1</v>
       </c>
@@ -2643,7 +2644,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:19">
+    <row r="46" spans="1:19" hidden="1">
       <c r="A46" s="6">
         <v>1</v>
       </c>
@@ -2651,10 +2652,10 @@
         <v>255</v>
       </c>
       <c r="D46" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" hidden="1">
       <c r="A47">
         <v>1</v>
       </c>
@@ -2669,13 +2670,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:19">
-      <c r="A48" s="16"/>
+    <row r="48" spans="1:19" hidden="1">
+      <c r="A48" s="16">
+        <v>1</v>
+      </c>
       <c r="B48" s="14">
         <v>258</v>
       </c>
       <c r="D48" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -2696,7 +2699,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" hidden="1">
       <c r="A51" s="18">
         <v>1</v>
       </c>
@@ -2707,10 +2710,10 @@
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" hidden="1">
       <c r="A52">
         <f>SUM(A2:A51)</f>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B52">
         <v>50</v>
@@ -2719,115 +2722,117 @@
     <row r="53" spans="1:7">
       <c r="B53">
         <f>COUNT(B2:B51)-A52</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C53">
         <f>COUNT(A2:A51)</f>
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="15" customHeight="1">
       <c r="E57" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F57" s="21">
         <v>32773</v>
       </c>
       <c r="G57" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="15" customHeight="1">
       <c r="E58" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F58" s="21">
         <v>32769</v>
       </c>
       <c r="G58" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="15" customHeight="1">
       <c r="E59" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F59" s="21">
         <v>32770</v>
       </c>
       <c r="G59" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="15" customHeight="1">
       <c r="E60" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F60" s="21">
         <v>32771</v>
       </c>
       <c r="G60" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="15" customHeight="1">
       <c r="E61" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F61" s="21">
         <v>0</v>
       </c>
       <c r="G61" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="15" customHeight="1">
       <c r="E62" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F62" s="21">
         <v>32772</v>
       </c>
       <c r="G62" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="15" customHeight="1">
       <c r="E63" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F63" s="21">
         <v>32780</v>
       </c>
       <c r="G63" s="21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="15" customHeight="1">
       <c r="E64" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F64" s="21">
         <v>32781</v>
       </c>
       <c r="G64" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="65" spans="5:7" ht="15" customHeight="1">
       <c r="E65" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F65" s="21">
         <v>32782</v>
       </c>
       <c r="G65" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:B53">
-    <filterColumn colId="0"/>
+    <filterColumn colId="0">
+      <filters blank="1"/>
+    </filterColumn>
     <filterColumn colId="1"/>
   </autoFilter>
   <sortState ref="B1:E52">

--- a/preguntas/RevisionPreguntasDeExamen.xlsx
+++ b/preguntas/RevisionPreguntasDeExamen.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="89">
   <si>
     <t>Tejero Calderera, José Vicente</t>
   </si>
@@ -233,9 +233,6 @@
     <t>tema</t>
   </si>
   <si>
-    <t>a performance counte ********</t>
-  </si>
-  <si>
     <t>PerformanceCounterType****</t>
   </si>
   <si>
@@ -327,13 +324,32 @@
   </si>
   <si>
     <t>LINQ skip take ERRATA</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">LINQ GROUP() Aggregate()  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ERRATA</t>
+    </r>
+  </si>
+  <si>
+    <t>a performance counter ********</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -371,6 +387,14 @@
       <color rgb="FF171717"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -826,7 +850,7 @@
     <row r="2" spans="1:19">
       <c r="A2">
         <f ca="1">ROUND((RAND()*17),2)</f>
-        <v>10.65</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -886,7 +910,7 @@
     <row r="3" spans="1:19">
       <c r="A3">
         <f t="shared" ref="A3:A16" ca="1" si="0">ROUND((RAND()*17),2)</f>
-        <v>14.56</v>
+        <v>11.9</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
@@ -946,7 +970,7 @@
     <row r="4" spans="1:19">
       <c r="A4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48</v>
+        <v>8.86</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
@@ -1006,7 +1030,7 @@
     <row r="5" spans="1:19">
       <c r="A5">
         <f t="shared" ca="1" si="0"/>
-        <v>16.329999999999998</v>
+        <v>11.27</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>13</v>
@@ -1064,7 +1088,7 @@
     <row r="6" spans="1:19">
       <c r="A6">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2999999999999998</v>
+        <v>6.23</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>4</v>
@@ -1124,7 +1148,7 @@
     <row r="7" spans="1:19">
       <c r="A7">
         <f t="shared" ca="1" si="0"/>
-        <v>11.27</v>
+        <v>9.39</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -1184,7 +1208,7 @@
     <row r="8" spans="1:19">
       <c r="A8">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>6</v>
@@ -1244,7 +1268,7 @@
     <row r="9" spans="1:19">
       <c r="A9">
         <f t="shared" ca="1" si="0"/>
-        <v>12.36</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>14</v>
@@ -1302,7 +1326,7 @@
     <row r="10" spans="1:19">
       <c r="A10">
         <f t="shared" ca="1" si="0"/>
-        <v>1.82</v>
+        <v>2.4</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>14</v>
@@ -1360,7 +1384,7 @@
     <row r="11" spans="1:19">
       <c r="A11">
         <f t="shared" ca="1" si="0"/>
-        <v>11.49</v>
+        <v>14.17</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>15</v>
@@ -1418,7 +1442,7 @@
     <row r="12" spans="1:19">
       <c r="A12">
         <f t="shared" ca="1" si="0"/>
-        <v>4.21</v>
+        <v>11.34</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>8</v>
@@ -1476,7 +1500,7 @@
     <row r="13" spans="1:19">
       <c r="A13">
         <f t="shared" ca="1" si="0"/>
-        <v>15.29</v>
+        <v>4.96</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>9</v>
@@ -1534,7 +1558,7 @@
     <row r="14" spans="1:19">
       <c r="A14">
         <f t="shared" ca="1" si="0"/>
-        <v>4.46</v>
+        <v>13.76</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>12</v>
@@ -1594,7 +1618,7 @@
     <row r="15" spans="1:19">
       <c r="A15">
         <f t="shared" ca="1" si="0"/>
-        <v>3.93</v>
+        <v>0.2</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>10</v>
@@ -1654,7 +1678,7 @@
     <row r="16" spans="1:19">
       <c r="A16">
         <f t="shared" ca="1" si="0"/>
-        <v>13.24</v>
+        <v>8.99</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>0</v>
@@ -1828,7 +1852,7 @@
         <v>85</v>
       </c>
       <c r="F20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="2:19">
@@ -1838,7 +1862,7 @@
         <v>86</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
@@ -2072,7 +2096,7 @@
   <dimension ref="A1:S65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2241,12 +2265,14 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="16"/>
+      <c r="A13" s="16">
+        <v>1</v>
+      </c>
       <c r="B13" s="12">
         <v>74</v>
       </c>
       <c r="D13" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:8" hidden="1">
@@ -2268,7 +2294,7 @@
         <v>83</v>
       </c>
       <c r="D15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:8" hidden="1">
@@ -2317,7 +2343,7 @@
         <v>125</v>
       </c>
       <c r="D19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E19" s="15" t="s">
         <v>20</v>
@@ -2365,7 +2391,7 @@
         <v>144</v>
       </c>
       <c r="D22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:17" hidden="1">
@@ -2393,7 +2419,7 @@
         <v>165</v>
       </c>
       <c r="D24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:17" hidden="1">
@@ -2437,7 +2463,7 @@
         <v>169</v>
       </c>
       <c r="D28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:17" hidden="1">
@@ -2471,7 +2497,7 @@
         <v>172</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:17" hidden="1">
@@ -2515,7 +2541,7 @@
         <v>176</v>
       </c>
       <c r="D35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:19" hidden="1">
@@ -2526,7 +2552,7 @@
         <v>177</v>
       </c>
       <c r="D36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:19" hidden="1">
@@ -2562,7 +2588,7 @@
         <v>211</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:19" hidden="1">
@@ -2609,8 +2635,10 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:19">
-      <c r="A43" s="16"/>
+    <row r="43" spans="1:19" hidden="1">
+      <c r="A43" s="16">
+        <v>1</v>
+      </c>
       <c r="B43" s="6">
         <v>245</v>
       </c>
@@ -2652,7 +2680,7 @@
         <v>255</v>
       </c>
       <c r="D46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="1:19" hidden="1">
@@ -2678,20 +2706,24 @@
         <v>258</v>
       </c>
       <c r="D48" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="16"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="15.75" hidden="1">
+      <c r="A49" s="16">
+        <v>1</v>
+      </c>
       <c r="B49" s="14">
         <v>274</v>
       </c>
       <c r="D49" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="16"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" hidden="1">
+      <c r="A50" s="16">
+        <v>1</v>
+      </c>
       <c r="B50" s="14">
         <v>279</v>
       </c>
@@ -2713,7 +2745,7 @@
     <row r="52" spans="1:7" hidden="1">
       <c r="A52">
         <f>SUM(A2:A51)</f>
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B52">
         <v>50</v>
@@ -2722,110 +2754,110 @@
     <row r="53" spans="1:7">
       <c r="B53">
         <f>COUNT(B2:B51)-A52</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C53">
         <f>COUNT(A2:A51)</f>
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="15" customHeight="1">
       <c r="E57" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F57" s="21">
         <v>32773</v>
       </c>
       <c r="G57" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="15" customHeight="1">
       <c r="E58" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F58" s="21">
         <v>32769</v>
       </c>
       <c r="G58" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="15" customHeight="1">
       <c r="E59" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F59" s="21">
         <v>32770</v>
       </c>
       <c r="G59" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="15" customHeight="1">
       <c r="E60" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F60" s="21">
         <v>32771</v>
       </c>
       <c r="G60" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="15" customHeight="1">
       <c r="E61" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F61" s="21">
         <v>0</v>
       </c>
       <c r="G61" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="15" customHeight="1">
       <c r="E62" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F62" s="21">
         <v>32772</v>
       </c>
       <c r="G62" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="15" customHeight="1">
       <c r="E63" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F63" s="21">
         <v>32780</v>
       </c>
       <c r="G63" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="15" customHeight="1">
       <c r="E64" s="21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F64" s="21">
         <v>32781</v>
       </c>
       <c r="G64" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="65" spans="5:7" ht="15" customHeight="1">
       <c r="E65" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F65" s="21">
         <v>32782</v>
       </c>
       <c r="G65" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/preguntas/RevisionPreguntasDeExamen.xlsx
+++ b/preguntas/RevisionPreguntasDeExamen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1350" windowWidth="12585" windowHeight="3270" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="1350" windowWidth="12585" windowHeight="3270"/>
   </bookViews>
   <sheets>
     <sheet name="Examen" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="71">
   <si>
     <t>Tejero Calderera, José Vicente</t>
   </si>
@@ -269,60 +269,6 @@
     <t>hash de un filename ERRATA</t>
   </si>
   <si>
-    <t>Mac</t>
-  </si>
-  <si>
-    <t>Algoritmo de hash con claves de MAC.</t>
-  </si>
-  <si>
-    <t>Md2</t>
-  </si>
-  <si>
-    <t>Algoritmo de hash MD2.</t>
-  </si>
-  <si>
-    <t>Md4</t>
-  </si>
-  <si>
-    <t>Algoritmo de hash MD4.</t>
-  </si>
-  <si>
-    <t>Md5</t>
-  </si>
-  <si>
-    <t>Algoritmo de hash MD5.</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>No hay ningún algoritmo de hash.</t>
-  </si>
-  <si>
-    <t>Sha</t>
-  </si>
-  <si>
-    <t>Algoritmo de hash SHA.</t>
-  </si>
-  <si>
-    <t>Sha256</t>
-  </si>
-  <si>
-    <t>Algoritmo hash SHA-256.</t>
-  </si>
-  <si>
-    <t>Sha384</t>
-  </si>
-  <si>
-    <t>Algoritmo hash SHA-384.</t>
-  </si>
-  <si>
-    <t>Sha512</t>
-  </si>
-  <si>
-    <t>Algoritmo hash SHA-512.</t>
-  </si>
-  <si>
     <t>LINQ skip take ERRATA</t>
   </si>
   <si>
@@ -349,7 +295,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -383,12 +329,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF171717"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
@@ -397,7 +337,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -446,12 +386,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -480,7 +414,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -512,9 +446,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -822,7 +753,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -832,7 +763,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:AY166"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -850,7 +781,7 @@
     <row r="2" spans="1:19">
       <c r="A2">
         <f ca="1">ROUND((RAND()*17),2)</f>
-        <v>4.5999999999999996</v>
+        <v>1.44</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -910,7 +841,7 @@
     <row r="3" spans="1:19">
       <c r="A3">
         <f t="shared" ref="A3:A16" ca="1" si="0">ROUND((RAND()*17),2)</f>
-        <v>11.9</v>
+        <v>2.4</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
@@ -970,7 +901,7 @@
     <row r="4" spans="1:19">
       <c r="A4">
         <f t="shared" ca="1" si="0"/>
-        <v>8.86</v>
+        <v>16.02</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
@@ -1030,7 +961,7 @@
     <row r="5" spans="1:19">
       <c r="A5">
         <f t="shared" ca="1" si="0"/>
-        <v>11.27</v>
+        <v>14.03</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>13</v>
@@ -1088,7 +1019,7 @@
     <row r="6" spans="1:19">
       <c r="A6">
         <f t="shared" ca="1" si="0"/>
-        <v>6.23</v>
+        <v>12.59</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>4</v>
@@ -1148,7 +1079,7 @@
     <row r="7" spans="1:19">
       <c r="A7">
         <f t="shared" ca="1" si="0"/>
-        <v>9.39</v>
+        <v>14.61</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -1208,7 +1139,7 @@
     <row r="8" spans="1:19">
       <c r="A8">
         <f t="shared" ca="1" si="0"/>
-        <v>4.0199999999999996</v>
+        <v>4.33</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>6</v>
@@ -1268,7 +1199,7 @@
     <row r="9" spans="1:19">
       <c r="A9">
         <f t="shared" ca="1" si="0"/>
-        <v>4.4400000000000004</v>
+        <v>10.84</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>14</v>
@@ -1326,7 +1257,7 @@
     <row r="10" spans="1:19">
       <c r="A10">
         <f t="shared" ca="1" si="0"/>
-        <v>2.4</v>
+        <v>12.19</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>14</v>
@@ -1384,7 +1315,7 @@
     <row r="11" spans="1:19">
       <c r="A11">
         <f t="shared" ca="1" si="0"/>
-        <v>14.17</v>
+        <v>5.58</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>15</v>
@@ -1442,7 +1373,7 @@
     <row r="12" spans="1:19">
       <c r="A12">
         <f t="shared" ca="1" si="0"/>
-        <v>11.34</v>
+        <v>9.7200000000000006</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>8</v>
@@ -1500,7 +1431,7 @@
     <row r="13" spans="1:19">
       <c r="A13">
         <f t="shared" ca="1" si="0"/>
-        <v>4.96</v>
+        <v>1.5</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>9</v>
@@ -1558,7 +1489,7 @@
     <row r="14" spans="1:19">
       <c r="A14">
         <f t="shared" ca="1" si="0"/>
-        <v>13.76</v>
+        <v>7.59</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>12</v>
@@ -1618,7 +1549,7 @@
     <row r="15" spans="1:19">
       <c r="A15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2</v>
+        <v>9.26</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>10</v>
@@ -1678,7 +1609,7 @@
     <row r="16" spans="1:19">
       <c r="A16">
         <f t="shared" ca="1" si="0"/>
-        <v>8.99</v>
+        <v>2.9</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>0</v>
@@ -2092,11 +2023,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:S65"/>
+  <dimension ref="A1:S53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55:XFD66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2122,7 +2052,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1">
+    <row r="2" spans="1:8">
       <c r="A2" s="16">
         <v>1</v>
       </c>
@@ -2133,7 +2063,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:8" hidden="1">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2144,7 +2074,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:8" hidden="1">
+    <row r="4" spans="1:8">
       <c r="A4" s="16">
         <v>1</v>
       </c>
@@ -2155,7 +2085,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:8" hidden="1">
+    <row r="5" spans="1:8">
       <c r="A5" s="16">
         <v>1</v>
       </c>
@@ -2166,7 +2096,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:8" hidden="1">
+    <row r="6" spans="1:8">
       <c r="A6" s="16">
         <v>1</v>
       </c>
@@ -2177,7 +2107,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:8" hidden="1">
+    <row r="7" spans="1:8">
       <c r="A7" s="16">
         <v>1</v>
       </c>
@@ -2197,7 +2127,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:8" hidden="1">
+    <row r="8" spans="1:8">
       <c r="A8" s="6">
         <v>1</v>
       </c>
@@ -2214,7 +2144,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:8" hidden="1">
+    <row r="9" spans="1:8">
       <c r="A9" s="6">
         <v>1</v>
       </c>
@@ -2225,7 +2155,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="6" customFormat="1" ht="27" hidden="1" customHeight="1">
+    <row r="10" spans="1:8" s="6" customFormat="1" ht="27" customHeight="1">
       <c r="A10" s="16">
         <v>1</v>
       </c>
@@ -2238,7 +2168,7 @@
       </c>
       <c r="E10"/>
     </row>
-    <row r="11" spans="1:8" hidden="1">
+    <row r="11" spans="1:8">
       <c r="A11" s="16">
         <v>1</v>
       </c>
@@ -2249,7 +2179,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:8" hidden="1">
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>1</v>
       </c>
@@ -2272,10 +2202,10 @@
         <v>74</v>
       </c>
       <c r="D13" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" hidden="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="16">
         <v>1</v>
       </c>
@@ -2286,7 +2216,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:8" hidden="1">
+    <row r="15" spans="1:8">
       <c r="A15" s="16">
         <v>1</v>
       </c>
@@ -2297,7 +2227,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1">
+    <row r="16" spans="1:8">
       <c r="A16" s="6">
         <v>1</v>
       </c>
@@ -2308,7 +2238,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:17" s="6" customFormat="1" hidden="1">
+    <row r="17" spans="1:17" s="6" customFormat="1">
       <c r="A17" s="6">
         <v>1</v>
       </c>
@@ -2321,7 +2251,7 @@
       </c>
       <c r="E17"/>
     </row>
-    <row r="18" spans="1:17" hidden="1">
+    <row r="18" spans="1:17">
       <c r="A18" s="16">
         <v>1</v>
       </c>
@@ -2335,7 +2265,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:17" hidden="1">
+    <row r="19" spans="1:17">
       <c r="A19" s="6">
         <v>1</v>
       </c>
@@ -2361,8 +2291,8 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
     </row>
-    <row r="20" spans="1:17" hidden="1">
-      <c r="A20" s="22">
+    <row r="20" spans="1:17">
+      <c r="A20" s="21">
         <v>1</v>
       </c>
       <c r="B20" s="14">
@@ -2372,8 +2302,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:17" hidden="1">
-      <c r="A21" s="22">
+    <row r="21" spans="1:17">
+      <c r="A21" s="21">
         <v>1</v>
       </c>
       <c r="B21" s="14">
@@ -2383,7 +2313,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:17" hidden="1">
+    <row r="22" spans="1:17">
       <c r="A22" s="16">
         <v>1</v>
       </c>
@@ -2394,8 +2324,8 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:17" hidden="1">
-      <c r="A23" s="22">
+    <row r="23" spans="1:17">
+      <c r="A23" s="21">
         <v>1</v>
       </c>
       <c r="B23" s="14">
@@ -2411,8 +2341,8 @@
         <v>166</v>
       </c>
     </row>
-    <row r="24" spans="1:17" hidden="1">
-      <c r="A24" s="22">
+    <row r="24" spans="1:17">
+      <c r="A24" s="21">
         <v>1</v>
       </c>
       <c r="B24" s="14">
@@ -2422,7 +2352,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:17" hidden="1">
+    <row r="25" spans="1:17">
       <c r="A25" s="16">
         <v>1</v>
       </c>
@@ -2433,7 +2363,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:17" hidden="1">
+    <row r="26" spans="1:17">
       <c r="A26" s="6">
         <v>1</v>
       </c>
@@ -2444,7 +2374,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:17" hidden="1">
+    <row r="27" spans="1:17">
       <c r="A27" s="6">
         <v>1</v>
       </c>
@@ -2455,7 +2385,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:17" hidden="1">
+    <row r="28" spans="1:17">
       <c r="A28" s="18">
         <v>1</v>
       </c>
@@ -2466,7 +2396,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:17" hidden="1">
+    <row r="29" spans="1:17">
       <c r="A29" s="6">
         <v>1</v>
       </c>
@@ -2477,7 +2407,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:17" hidden="1">
+    <row r="30" spans="1:17">
       <c r="A30" s="6">
         <v>1</v>
       </c>
@@ -2489,7 +2419,7 @@
       </c>
       <c r="E30" s="16"/>
     </row>
-    <row r="31" spans="1:17" hidden="1">
+    <row r="31" spans="1:17">
       <c r="A31" s="16">
         <v>1</v>
       </c>
@@ -2500,7 +2430,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:17" hidden="1">
+    <row r="32" spans="1:17">
       <c r="A32" s="16">
         <v>1</v>
       </c>
@@ -2511,7 +2441,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:19" hidden="1">
+    <row r="33" spans="1:19">
       <c r="A33" s="16">
         <v>1</v>
       </c>
@@ -2522,7 +2452,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:19" hidden="1">
+    <row r="34" spans="1:19">
       <c r="A34" s="6">
         <v>1</v>
       </c>
@@ -2533,7 +2463,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:19" hidden="1">
+    <row r="35" spans="1:19">
       <c r="A35" s="6">
         <v>1</v>
       </c>
@@ -2544,7 +2474,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:19" hidden="1">
+    <row r="36" spans="1:19">
       <c r="A36" s="6">
         <v>1</v>
       </c>
@@ -2555,7 +2485,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:19" hidden="1">
+    <row r="37" spans="1:19">
       <c r="A37" s="6">
         <v>1</v>
       </c>
@@ -2583,7 +2513,9 @@
       <c r="S37" s="3"/>
     </row>
     <row r="38" spans="1:19" ht="17.25">
-      <c r="A38" s="17"/>
+      <c r="A38" s="17">
+        <v>1</v>
+      </c>
       <c r="B38" s="6">
         <v>211</v>
       </c>
@@ -2591,7 +2523,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:19" hidden="1">
+    <row r="39" spans="1:19">
       <c r="A39" s="6">
         <v>1</v>
       </c>
@@ -2602,7 +2534,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:19" hidden="1">
+    <row r="40" spans="1:19">
       <c r="A40" s="6">
         <v>1</v>
       </c>
@@ -2613,7 +2545,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:19" hidden="1">
+    <row r="41" spans="1:19">
       <c r="A41" s="6">
         <v>1</v>
       </c>
@@ -2624,7 +2556,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:19" hidden="1">
+    <row r="42" spans="1:19">
       <c r="A42" s="6">
         <v>1</v>
       </c>
@@ -2635,7 +2567,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:19" hidden="1">
+    <row r="43" spans="1:19">
       <c r="A43" s="16">
         <v>1</v>
       </c>
@@ -2646,7 +2578,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:19" hidden="1">
+    <row r="44" spans="1:19">
       <c r="A44">
         <v>1</v>
       </c>
@@ -2661,7 +2593,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="1:19" hidden="1">
+    <row r="45" spans="1:19">
       <c r="A45" s="16">
         <v>1</v>
       </c>
@@ -2672,7 +2604,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:19" hidden="1">
+    <row r="46" spans="1:19">
       <c r="A46" s="6">
         <v>1</v>
       </c>
@@ -2683,7 +2615,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="47" spans="1:19" hidden="1">
+    <row r="47" spans="1:19">
       <c r="A47">
         <v>1</v>
       </c>
@@ -2698,7 +2630,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:19" hidden="1">
+    <row r="48" spans="1:19">
       <c r="A48" s="16">
         <v>1</v>
       </c>
@@ -2706,10 +2638,10 @@
         <v>258</v>
       </c>
       <c r="D48" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="15.75" hidden="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.75">
       <c r="A49" s="16">
         <v>1</v>
       </c>
@@ -2717,10 +2649,10 @@
         <v>274</v>
       </c>
       <c r="D49" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" hidden="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="16">
         <v>1</v>
       </c>
@@ -2731,7 +2663,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:7" hidden="1">
+    <row r="51" spans="1:4">
       <c r="A51" s="18">
         <v>1</v>
       </c>
@@ -2742,129 +2674,28 @@
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="1:7" hidden="1">
+    <row r="52" spans="1:4">
       <c r="A52">
         <f>SUM(A2:A51)</f>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B52">
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:4">
       <c r="B53">
         <f>COUNT(B2:B51)-A52</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C53">
         <f>COUNT(A2:A51)</f>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="15" customHeight="1">
-      <c r="E57" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="F57" s="21">
-        <v>32773</v>
-      </c>
-      <c r="G57" s="21" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="15" customHeight="1">
-      <c r="E58" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="F58" s="21">
-        <v>32769</v>
-      </c>
-      <c r="G58" s="21" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="15" customHeight="1">
-      <c r="E59" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="F59" s="21">
-        <v>32770</v>
-      </c>
-      <c r="G59" s="21" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="15" customHeight="1">
-      <c r="E60" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="F60" s="21">
-        <v>32771</v>
-      </c>
-      <c r="G60" s="21" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="15" customHeight="1">
-      <c r="E61" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="F61" s="21">
-        <v>0</v>
-      </c>
-      <c r="G61" s="21" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="15" customHeight="1">
-      <c r="E62" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="F62" s="21">
-        <v>32772</v>
-      </c>
-      <c r="G62" s="21" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="15" customHeight="1">
-      <c r="E63" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="F63" s="21">
-        <v>32780</v>
-      </c>
-      <c r="G63" s="21" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="15" customHeight="1">
-      <c r="E64" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="F64" s="21">
-        <v>32781</v>
-      </c>
-      <c r="G64" s="21" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="65" spans="5:7" ht="15" customHeight="1">
-      <c r="E65" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="F65" s="21">
-        <v>32782</v>
-      </c>
-      <c r="G65" s="21" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:B53">
-    <filterColumn colId="0">
-      <filters blank="1"/>
-    </filterColumn>
+    <filterColumn colId="0"/>
     <filterColumn colId="1"/>
   </autoFilter>
   <sortState ref="B1:E52">
